--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -144,6 +144,30 @@
   </si>
   <si>
     <t>/keshiki/</t>
+  </si>
+  <si>
+    <t>さむい</t>
+  </si>
+  <si>
+    <t>/samui/</t>
+  </si>
+  <si>
+    <t>cold (referring to the temperature of the air, weather, climate, or season)</t>
+  </si>
+  <si>
+    <t>あつい</t>
+  </si>
+  <si>
+    <t>/atsui/</t>
+  </si>
+  <si>
+    <t>hot (referring to the temperature of the air, weather, climate, or season, passions, but never spiciness)</t>
+  </si>
+  <si>
+    <t>Japanese people generally do not greet a total stranger unless they find themselves sharing something like a sense of community with that person.</t>
+  </si>
+  <si>
+    <t>You should always bow slightly while exchanging greetings.</t>
   </si>
 </sst>
 </file>
@@ -483,107 +507,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+    <row r="9" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -591,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -665,10 +716,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,6 +762,16 @@
         <v>24</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -89,15 +89,6 @@
     <t>/ohayoo gozaimasu/</t>
   </si>
   <si>
-    <t>おはようございます (or the casual version, おはよう) from dawn to around noon</t>
-  </si>
-  <si>
-    <t>こんにちは from noon to dusk</t>
-  </si>
-  <si>
-    <t>こんばんは after sunset</t>
-  </si>
-  <si>
     <t>Greeting</t>
   </si>
   <si>
@@ -168,13 +159,225 @@
   </si>
   <si>
     <t>You should always bow slightly while exchanging greetings.</t>
+  </si>
+  <si>
+    <t>かんこうですか。</t>
+  </si>
+  <si>
+    <t>Are you sightseeing?</t>
+  </si>
+  <si>
+    <t>/kankoo desu ka/</t>
+  </si>
+  <si>
+    <t>かんこう</t>
+  </si>
+  <si>
+    <t>sightseeing</t>
+  </si>
+  <si>
+    <t>/kankoo/</t>
+  </si>
+  <si>
+    <t>Am, is, are</t>
+  </si>
+  <si>
+    <t>ですか。</t>
+  </si>
+  <si>
+    <t>Are you?</t>
+  </si>
+  <si>
+    <t>/desu ka/</t>
+  </si>
+  <si>
+    <t>さんぽ</t>
+  </si>
+  <si>
+    <t>a walk</t>
+  </si>
+  <si>
+    <t>/sanpo/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanese people prefer to communicate using as few words as possible. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They omit what they can imply. That is why Japanese sentences often seem to consist of bare essentials. </t>
+  </si>
+  <si>
+    <t>hiking</t>
+  </si>
+  <si>
+    <t>ハイキング</t>
+  </si>
+  <si>
+    <t>/haikingu/</t>
+  </si>
+  <si>
+    <t>ええ</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>/ee/</t>
+  </si>
+  <si>
+    <t>そうです。</t>
+  </si>
+  <si>
+    <t>/soo desu/</t>
+  </si>
+  <si>
+    <t>that's right.</t>
+  </si>
+  <si>
+    <t>&gt;Is so</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">おはようございます </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(or the casual version, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>おはよう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) from dawn to around noon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>こんにちは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from noon to dusk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>こんばんは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> after sunset</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The little word</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> at the end of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ですか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is a particle that turns the statement into a question.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,15 +386,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color rgb="FF4B4B4B"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FFFF0000"/>
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="23"/>
-      <color rgb="FF4B4B4B"/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
@@ -216,17 +428,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,16 +716,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -529,7 +738,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -542,7 +751,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -555,81 +764,188 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>27</v>
+      <c r="A13" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
-        <v>39</v>
+      <c r="A25" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="5" t="s">
-        <v>44</v>
+      <c r="A33" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A49" s="3" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A53" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A61" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A65" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -649,7 +965,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -659,17 +975,17 @@
       </c>
     </row>
     <row r="5" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -679,7 +995,7 @@
       </c>
     </row>
     <row r="13" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -689,7 +1005,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -716,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,45 +1047,60 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="111">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -371,6 +371,114 @@
       </rPr>
       <t> is a particle that turns the statement into a question.</t>
     </r>
+  </si>
+  <si>
+    <t>ありがとう</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>/arigatoo/</t>
+  </si>
+  <si>
+    <t>どうもありがとう</t>
+  </si>
+  <si>
+    <t>Thank you very much</t>
+  </si>
+  <si>
+    <t>/doomo arigatoo/</t>
+  </si>
+  <si>
+    <t>ありがとうございます</t>
+  </si>
+  <si>
+    <t>/arigatoo gozaimasu/</t>
+  </si>
+  <si>
+    <t>どうもありがとうございます</t>
+  </si>
+  <si>
+    <t>/doomo arigatoo gozaimasu/</t>
+  </si>
+  <si>
+    <t>Thanks</t>
+  </si>
+  <si>
+    <t>どうも</t>
+  </si>
+  <si>
+    <t>/doomo/</t>
+  </si>
+  <si>
+    <t>いいえ</t>
+  </si>
+  <si>
+    <t>No problem</t>
+  </si>
+  <si>
+    <t>&gt;No</t>
+  </si>
+  <si>
+    <t>/iie/</t>
+  </si>
+  <si>
+    <t>Goodbye</t>
+  </si>
+  <si>
+    <t>さようなら</t>
+  </si>
+  <si>
+    <t>/sayoonara/</t>
+  </si>
+  <si>
+    <t>さよなら</t>
+  </si>
+  <si>
+    <t>/sayonara/</t>
+  </si>
+  <si>
+    <t>Well, then</t>
+  </si>
+  <si>
+    <t>じゃあ</t>
+  </si>
+  <si>
+    <t>/jaa/</t>
+  </si>
+  <si>
+    <t>again</t>
+  </si>
+  <si>
+    <t>また</t>
+  </si>
+  <si>
+    <t>/mata/</t>
+  </si>
+  <si>
+    <t>See you later</t>
+  </si>
+  <si>
+    <t>&gt;Well then, again</t>
+  </si>
+  <si>
+    <t>じゃあ、また</t>
+  </si>
+  <si>
+    <t>/jaa mata/</t>
+  </si>
+  <si>
+    <t>Take care</t>
+  </si>
+  <si>
+    <t>&gt;Be careful</t>
+  </si>
+  <si>
+    <t>きをつけて</t>
+  </si>
+  <si>
+    <t>/ki o tsukete/</t>
   </si>
 </sst>
 </file>
@@ -716,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +1040,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -940,12 +1048,165 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="C66" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A69" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A73" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s">
+        <v>79</v>
+      </c>
+      <c r="K74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A77" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
+      <c r="H78" t="s">
+        <v>79</v>
+      </c>
+      <c r="K78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A81" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A85" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" t="s">
+        <v>96</v>
+      </c>
+      <c r="E86" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A89" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A93" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A97" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A101" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1034,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>/kankoo/</t>
-  </si>
-  <si>
-    <t>Am, is, are</t>
   </si>
   <si>
     <t>ですか。</t>
@@ -480,12 +477,18 @@
   <si>
     <t>/ki o tsukete/</t>
   </si>
+  <si>
+    <t xml:space="preserve">Bowing is an important social gesture for showing respect. </t>
+  </si>
+  <si>
+    <t>The Japanese bow when they say "Hello," "Goodbye," "Thank you," "I'm sorry," or "Nice to meet you."</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +518,12 @@
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF4B4B4B"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -536,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -544,6 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +946,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -944,17 +954,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -962,251 +972,238 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="D61" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" t="s">
-        <v>70</v>
+        <v>84</v>
+      </c>
+      <c r="B66" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>85</v>
-      </c>
-      <c r="B70" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+      <c r="H70" t="s">
+        <v>78</v>
+      </c>
+      <c r="K70" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K74" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>82</v>
-      </c>
-      <c r="H78" t="s">
-        <v>79</v>
-      </c>
-      <c r="K78" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C81" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>95</v>
+      </c>
+      <c r="E82" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" t="s">
         <v>96</v>
       </c>
-      <c r="E86" t="s">
-        <v>92</v>
-      </c>
-      <c r="F86" t="s">
-        <v>94</v>
+      <c r="C86" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>97</v>
-      </c>
-      <c r="C90" t="s">
         <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="E93" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>100</v>
-      </c>
-      <c r="B94" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="C94" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E97" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>103</v>
-      </c>
-      <c r="C98" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A101" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D101" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B98" t="s">
         <v>107</v>
-      </c>
-      <c r="B102" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1293,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,17 +1323,17 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1351,20 +1348,31 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="152">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -482,6 +482,126 @@
   </si>
   <si>
     <t>The Japanese bow when they say "Hello," "Goodbye," "Thank you," "I'm sorry," or "Nice to meet you."</t>
+  </si>
+  <si>
+    <t>すみません。えいごをはなしますか。</t>
+  </si>
+  <si>
+    <t>Excuse me. Do you speak English?</t>
+  </si>
+  <si>
+    <t>いいえ、はなしません。すみません。</t>
+  </si>
+  <si>
+    <t>No, I don't. I'm sorry.</t>
+  </si>
+  <si>
+    <t>にほんごをはなしますか。</t>
+  </si>
+  <si>
+    <t>Do you speak Japanese?</t>
+  </si>
+  <si>
+    <t>すこしはなします。</t>
+  </si>
+  <si>
+    <t>I speak it a little.</t>
+  </si>
+  <si>
+    <t>どちらからですか。</t>
+  </si>
+  <si>
+    <t>Where are you from?</t>
+  </si>
+  <si>
+    <t>アメリカからです。</t>
+  </si>
+  <si>
+    <t>I'm from America.</t>
+  </si>
+  <si>
+    <t>すみません</t>
+  </si>
+  <si>
+    <t>/sumimasen/</t>
+  </si>
+  <si>
+    <t>Excuse me / I'm sorry / Thanks</t>
+  </si>
+  <si>
+    <t>Um</t>
+  </si>
+  <si>
+    <t>あのう</t>
+  </si>
+  <si>
+    <t>/anoo/</t>
+  </si>
+  <si>
+    <t>あのう is a very simple, polite way to draw someone's attention.</t>
+  </si>
+  <si>
+    <t>In Japan, laughing at someone is not always the sign of spite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Japanese may grin, giggle, or even laugh when you talk to them most likely because they are delighted at your efforts to learn their language. </t>
+  </si>
+  <si>
+    <t>So when you end up with giggling Japanese, join them in their happy mood!</t>
+  </si>
+  <si>
+    <t>I'm from America</t>
+  </si>
+  <si>
+    <t>&gt; Am from America</t>
+  </si>
+  <si>
+    <t>アメリカからです</t>
+  </si>
+  <si>
+    <t>/amerika kara desu/</t>
+  </si>
+  <si>
+    <t>アメリカ</t>
+  </si>
+  <si>
+    <t>/amerika/</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>から</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>/kara/</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>にほん</t>
+  </si>
+  <si>
+    <t>/nihon/</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>どちら</t>
+  </si>
+  <si>
+    <t>/dochira/</t>
+  </si>
+  <si>
+    <t>どこ</t>
+  </si>
+  <si>
+    <t>/doko/</t>
   </si>
 </sst>
 </file>
@@ -533,7 +653,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -541,11 +661,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -554,6 +683,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,6 +1334,109 @@
       </c>
       <c r="B98" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A101" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>126</v>
+      </c>
+      <c r="D102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A105" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A109" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A113" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A117" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F117" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>134</v>
+      </c>
+      <c r="C118" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A121" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A125" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" t="s">
+        <v>151</v>
+      </c>
+      <c r="E126" t="s">
+        <v>147</v>
+      </c>
+      <c r="F126" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1214,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,6 +1513,67 @@
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1290,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,6 +1665,26 @@
         <v>111</v>
       </c>
     </row>
+    <row r="31" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="166">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -602,6 +602,48 @@
   </si>
   <si>
     <t>/doko/</t>
+  </si>
+  <si>
+    <t>どちらからですか</t>
+  </si>
+  <si>
+    <t>/dochira kara desu ka/</t>
+  </si>
+  <si>
+    <t>Do you speak English?</t>
+  </si>
+  <si>
+    <t>えいごをはなしますか</t>
+  </si>
+  <si>
+    <t>/eego o hanashi masu ka/</t>
+  </si>
+  <si>
+    <t>はなします</t>
+  </si>
+  <si>
+    <t>/hanashi masu/</t>
+  </si>
+  <si>
+    <t>to speak</t>
+  </si>
+  <si>
+    <t>えいご</t>
+  </si>
+  <si>
+    <t>/eego/</t>
+  </si>
+  <si>
+    <t>the English language</t>
+  </si>
+  <si>
+    <t>the Japanese language</t>
+  </si>
+  <si>
+    <t>にほんご</t>
+  </si>
+  <si>
+    <t>/nihon go/</t>
   </si>
 </sst>
 </file>
@@ -964,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,6 +1479,71 @@
       </c>
       <c r="F126" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A129" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>121</v>
+      </c>
+      <c r="D130" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A133" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A137" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C137" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A141" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>163</v>
+      </c>
+      <c r="D142" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A145" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>154</v>
+      </c>
+      <c r="D146" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="178">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -644,6 +644,42 @@
   </si>
   <si>
     <t>/nihon go/</t>
+  </si>
+  <si>
+    <t>ちゅうごく</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>/chuugoku/</t>
+  </si>
+  <si>
+    <t>The little word ご means "language"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> when it is attached to a name of a country (as in にほんご) or culture (as in ヘブライご, which means "the Hebrew language")</t>
+  </si>
+  <si>
+    <t>The exception is "the English language": "England" is イギリス in Japanese, but we never say イギリスご, but say えいご!</t>
+  </si>
+  <si>
+    <t>すこし</t>
+  </si>
+  <si>
+    <t>a little</t>
+  </si>
+  <si>
+    <t>/sukoshi/</t>
+  </si>
+  <si>
+    <t>はなしません</t>
+  </si>
+  <si>
+    <t>don't speak</t>
+  </si>
+  <si>
+    <t>/hanashi masen/</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:K158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,41 +1545,80 @@
     </row>
     <row r="137" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A137" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C137" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>162</v>
+        <v>176</v>
+      </c>
+      <c r="C138" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A141" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="C141" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>163</v>
-      </c>
-      <c r="D142" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A145" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>163</v>
+      </c>
+      <c r="D146" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A149" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>154</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D150" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A153" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>167</v>
+      </c>
+      <c r="B154" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A157" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>173</v>
+      </c>
+      <c r="B158" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1554,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,6 +1758,7 @@
         <v>123</v>
       </c>
     </row>
+    <row r="50" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1691,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,19 +1853,34 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="226">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -681,12 +681,187 @@
   <si>
     <t>/hanashi masen/</t>
   </si>
+  <si>
+    <t>はじめまして。わたしはトムです。</t>
+  </si>
+  <si>
+    <t>Hello. I'm Tom.</t>
+  </si>
+  <si>
+    <t>おなまえは？</t>
+  </si>
+  <si>
+    <t>What's your name?</t>
+  </si>
+  <si>
+    <t>ようこです。どうぞよろしく。</t>
+  </si>
+  <si>
+    <t>I'm Yoko. Nice to meet you.</t>
+  </si>
+  <si>
+    <t>こちらこそよろしく。</t>
+  </si>
+  <si>
+    <t>Nice to meet you, too.</t>
+  </si>
+  <si>
+    <t>ようこさん、こちらはつまのメアリーです。</t>
+  </si>
+  <si>
+    <t>Yoko, this is my wife Mary.</t>
+  </si>
+  <si>
+    <t>はじめまして!</t>
+  </si>
+  <si>
+    <t>Hello!</t>
+  </si>
+  <si>
+    <t>アメリカからですか。</t>
+  </si>
+  <si>
+    <t>Are you from America?</t>
+  </si>
+  <si>
+    <t>いいえ、カナダからです。</t>
+  </si>
+  <si>
+    <t>No, we're from Canada.</t>
+  </si>
+  <si>
+    <t>おなまえは</t>
+  </si>
+  <si>
+    <t>/onamae wa/</t>
+  </si>
+  <si>
+    <t>なまえ</t>
+  </si>
+  <si>
+    <t>/namae/</t>
+  </si>
+  <si>
+    <t>おなまえ</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>/onamae/</t>
+  </si>
+  <si>
+    <t>Showing respect to oneself is against the Japanese cultural code of modesty!</t>
+  </si>
+  <si>
+    <r>
+      <t>not to use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>お</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> when talking about your own name.</t>
+    </r>
+  </si>
+  <si>
+    <t>わたし</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>/watashi/</t>
+  </si>
+  <si>
+    <t>あなた</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>/anata/</t>
+  </si>
+  <si>
+    <t>Hello (when meeting someone for the first time)</t>
+  </si>
+  <si>
+    <t>はじめまして</t>
+  </si>
+  <si>
+    <t>/hajimemashite/</t>
+  </si>
+  <si>
+    <r>
+      <t>はじめまして</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> is a typical self-﻿introduction opener.</t>
+    </r>
+  </si>
+  <si>
+    <t> the very first time you meet people; </t>
+  </si>
+  <si>
+    <t>Nice to meet you.</t>
+  </si>
+  <si>
+    <t>どうぞよろしく</t>
+  </si>
+  <si>
+    <t>/doozo yoroshiku/</t>
+  </si>
+  <si>
+    <t>"Please be nice to me."</t>
+  </si>
+  <si>
+    <t>"Nice to meet you." </t>
+  </si>
+  <si>
+    <t>ask for a favor</t>
+  </si>
+  <si>
+    <t>request your listener to extend your regards to someone</t>
+  </si>
+  <si>
+    <t>Same here</t>
+  </si>
+  <si>
+    <t>こちらこそ</t>
+  </si>
+  <si>
+    <t>/kochira koso/</t>
+  </si>
+  <si>
+    <t>"It is I that should be saying that."</t>
+  </si>
+  <si>
+    <t>a short response to "Nice to meet you," "Thank you," or "I'm sorry"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,6 +897,18 @@
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF4B4B4B"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFF26F12"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -752,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -762,6 +949,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1042,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K158"/>
+  <dimension ref="A1:K186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,6 +1808,103 @@
       </c>
       <c r="B158" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A161" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>199</v>
+      </c>
+      <c r="B162" t="s">
+        <v>197</v>
+      </c>
+      <c r="D162" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A165" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>181</v>
+      </c>
+      <c r="C166" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A169" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>204</v>
+      </c>
+      <c r="B170" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A173" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>207</v>
+      </c>
+      <c r="B174" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A177" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E177" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A181" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>214</v>
+      </c>
+      <c r="C182" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A185" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>221</v>
+      </c>
+      <c r="C186" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1629,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,7 +2044,88 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1767,10 +2134,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,6 +2250,62 @@
         <v>171</v>
       </c>
     </row>
+    <row r="44" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B45" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B49" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="D53" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="D54" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="D55" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="D59" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="239">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -780,9 +780,6 @@
     <t>わたし</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>/watashi/</t>
   </si>
   <si>
@@ -855,6 +852,207 @@
   </si>
   <si>
     <t>a short response to "Nice to meet you," "Thank you," or "I'm sorry"</t>
+  </si>
+  <si>
+    <t>Nice to meet you, too</t>
+  </si>
+  <si>
+    <t>こちらこそよろしく</t>
+  </si>
+  <si>
+    <t>/kochirakoso yoroshiku/</t>
+  </si>
+  <si>
+    <t>I am Yoko / As for me, am Yoko</t>
+  </si>
+  <si>
+    <t>わたしはようこです</t>
+  </si>
+  <si>
+    <t>I / me</t>
+  </si>
+  <si>
+    <t>/watashi wa yooko desu/</t>
+  </si>
+  <si>
+    <r>
+      <t>Traditional Japanese female given names end with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>こ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>, as in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>ようこ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>こ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> means a "child." </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Traditional Japanese male given names end with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>お</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>, as in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>まさお</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>, or with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>ろう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>, as in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>いちろう</t>
+    </r>
+  </si>
+  <si>
+    <t>Both endings mean "male." いちろう, for example, means "the first male." The most common family names are さとう, すずき, and たなか</t>
+  </si>
+  <si>
+    <t>The middle name is not used in Japan.</t>
+  </si>
+  <si>
+    <r>
+      <t>put the last name (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>たなか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>) before the first name (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>いちろう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">It's more common among Japanese to address each other by their last names, rather than their first names, </t>
+  </si>
+  <si>
+    <t>unless they are talking to family members, close friends, or children.</t>
   </si>
 </sst>
 </file>
@@ -1231,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K186"/>
+  <dimension ref="A1:K190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,62 +2047,84 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>230</v>
+      </c>
+      <c r="B170" t="s">
         <v>204</v>
-      </c>
-      <c r="B170" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A173" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>206</v>
+      </c>
+      <c r="B174" t="s">
         <v>207</v>
       </c>
-      <c r="B174" t="s">
+    </row>
+    <row r="177" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A177" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E177" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A177" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E177" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A181" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>213</v>
+      </c>
+      <c r="C182" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>214</v>
-      </c>
-      <c r="C182" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A185" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>220</v>
+      </c>
+      <c r="C186" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>221</v>
-      </c>
-      <c r="C186" t="s">
-        <v>223</v>
+      <c r="F186" t="s">
+        <v>225</v>
+      </c>
+      <c r="I186" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A189" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>228</v>
+      </c>
+      <c r="D190" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2134,10 +2354,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,48 +2482,83 @@
     </row>
     <row r="48" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D53" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D54" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D55" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D59" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="264">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -1053,6 +1053,161 @@
   </si>
   <si>
     <t>unless they are talking to family members, close friends, or children.</t>
+  </si>
+  <si>
+    <t>I am not Tanaka / As for me, am not Tanaka</t>
+  </si>
+  <si>
+    <t>わたしはたなかじゃありません</t>
+  </si>
+  <si>
+    <t>じゃありません</t>
+  </si>
+  <si>
+    <t>is not, am not, or are not</t>
+  </si>
+  <si>
+    <t>/ja arimasen/</t>
+  </si>
+  <si>
+    <t>/watashi wa tanaka ja arimasen/</t>
+  </si>
+  <si>
+    <t>Most Japanese family names are written in Chinese characters</t>
+  </si>
+  <si>
+    <t>Mr. Tanaka</t>
+  </si>
+  <si>
+    <t>/tanaka san/</t>
+  </si>
+  <si>
+    <r>
+      <t>さん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> is a generic honorific title in Japanese and equivalent to Mr., Mrs., Ms., or Miss in English</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A super-﻿polite version of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>さん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>さま</t>
+    </r>
+  </si>
+  <si>
+    <t>Remember not to add the honorific title to your own name!</t>
+  </si>
+  <si>
+    <t>that's not right</t>
+  </si>
+  <si>
+    <t>そうじゃありません</t>
+  </si>
+  <si>
+    <t>/soo ja arimasen/</t>
+  </si>
+  <si>
+    <r>
+      <t>ええ、そうです</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> ("Yes, that's right") and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>いいえ、そうじゃありません</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ("No, that's not right") </t>
+    </r>
+  </si>
+  <si>
+    <t>can only be used as generic responses to questions that consist of nouns and ですか</t>
+  </si>
+  <si>
+    <t>たなかさん</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>カナダ</t>
+  </si>
+  <si>
+    <t>/kanada/</t>
+  </si>
+  <si>
+    <t>にほんじん</t>
+  </si>
+  <si>
+    <t>Japanese (referring to a person or people)</t>
+  </si>
+  <si>
+    <t>/nihon jin/</t>
+  </si>
+  <si>
+    <r>
+      <t>じん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> means "people" or "a person" when attached to a name of a country.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1429,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K190"/>
+  <dimension ref="A1:K214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,160 +2126,238 @@
     </row>
     <row r="149" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A149" s="3" t="s">
-        <v>155</v>
+        <v>260</v>
+      </c>
+      <c r="D149" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>154</v>
-      </c>
-      <c r="D150" t="s">
-        <v>156</v>
+      <c r="A150" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A153" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>167</v>
-      </c>
-      <c r="B154" t="s">
-        <v>168</v>
+        <v>154</v>
+      </c>
+      <c r="D154" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A157" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B158" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A161" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B162" t="s">
-        <v>197</v>
-      </c>
-      <c r="D162" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A165" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>181</v>
-      </c>
-      <c r="C166" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="B166" t="s">
+        <v>197</v>
+      </c>
+      <c r="D166" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A169" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>230</v>
-      </c>
-      <c r="B170" t="s">
-        <v>204</v>
+        <v>181</v>
+      </c>
+      <c r="C170" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A173" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="B174" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A177" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E177" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>208</v>
+        <v>206</v>
+      </c>
+      <c r="B178" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A181" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
+      </c>
+      <c r="E181" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>213</v>
-      </c>
-      <c r="C182" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A185" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C186" t="s">
-        <v>222</v>
-      </c>
-      <c r="F186" t="s">
-        <v>225</v>
-      </c>
-      <c r="I186" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A189" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>220</v>
+      </c>
+      <c r="C190" t="s">
+        <v>222</v>
+      </c>
+      <c r="F190" t="s">
+        <v>225</v>
+      </c>
+      <c r="I190" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A193" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>228</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D194" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A197" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>242</v>
+      </c>
+      <c r="D198" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A201" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>239</v>
+      </c>
+      <c r="F202" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A205" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>246</v>
+      </c>
+      <c r="C206" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A209" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>251</v>
+      </c>
+      <c r="C210" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A213" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>257</v>
+      </c>
+      <c r="B214" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2354,10 +2587,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,6 +2794,41 @@
         <v>238</v>
       </c>
     </row>
+    <row r="78" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B82" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B83" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="288">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -1208,6 +1208,120 @@
       </rPr>
       <t> means "people" or "a person" when attached to a name of a country.</t>
     </r>
+  </si>
+  <si>
+    <t>わたしたち</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>/watashitachi/</t>
+  </si>
+  <si>
+    <t>This is my wife Mary / As for this one, is wife Mary</t>
+  </si>
+  <si>
+    <t>こちらはつまのメアリーです</t>
+  </si>
+  <si>
+    <t>/kochira wa tsuma no mearii desu/</t>
+  </si>
+  <si>
+    <t>つま</t>
+  </si>
+  <si>
+    <t>My wife</t>
+  </si>
+  <si>
+    <t>/Tsuma/</t>
+  </si>
+  <si>
+    <t>your own wife つま or かない (literally, "inside house")</t>
+  </si>
+  <si>
+    <t>someone else's wife おくさん</t>
+  </si>
+  <si>
+    <t>メアリー</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>/Mearii/</t>
+  </si>
+  <si>
+    <r>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> is one of the super-﻿useful particles in Japanese with multiple functions</t>
+    </r>
+  </si>
+  <si>
+    <t>the preceding noun is the attribute of the noun that follows it</t>
+  </si>
+  <si>
+    <t>こちら</t>
+  </si>
+  <si>
+    <t>This one</t>
+  </si>
+  <si>
+    <t>/kochira/</t>
+  </si>
+  <si>
+    <r>
+      <t>never use honorific titles such as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>さん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> when introducing your family members to others</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"TH" sound in English is replaced with "S," "V" with "B," and both "R" and "L" are turned into one of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>らりるれろ</t>
+    </r>
+  </si>
+  <si>
+    <t>おっと</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>/otto/</t>
   </si>
 </sst>
 </file>
@@ -1584,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K214"/>
+  <dimension ref="A1:K238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="A239" sqref="A239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,6 +2472,84 @@
       </c>
       <c r="B214" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A217" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>265</v>
+      </c>
+      <c r="B218" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A221" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>271</v>
+      </c>
+      <c r="B222" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A225" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>276</v>
+      </c>
+      <c r="B226" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A229" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>281</v>
+      </c>
+      <c r="B230" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A233" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>267</v>
+      </c>
+      <c r="F234" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A237" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>286</v>
+      </c>
+      <c r="B238" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2587,10 +2779,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2829,6 +3021,36 @@
         <v>263</v>
       </c>
     </row>
+    <row r="93" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B94" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B98" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="293">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -1322,6 +1322,61 @@
   </si>
   <si>
     <t>/otto/</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>ともだち</t>
+  </si>
+  <si>
+    <t>/tomodachi/</t>
+  </si>
+  <si>
+    <r>
+      <t>If such introductions are purely social, you may use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>さん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> to be polite to all the parties involved</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In a business situation, however, you should never use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>さん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> when introducing your coworker, or even your boss, to people outside your company!</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1406,7 +1461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1418,6 +1473,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1698,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K238"/>
+  <dimension ref="A1:K242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,6 +2608,19 @@
       </c>
       <c r="B238" t="s">
         <v>287</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A241" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>288</v>
+      </c>
+      <c r="B242" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2779,10 +2850,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3051,6 +3122,16 @@
         <v>284</v>
       </c>
     </row>
+    <row r="107" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="326">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -1377,13 +1377,112 @@
       </rPr>
       <t> when introducing your coworker, or even your boss, to people outside your company!</t>
     </r>
+  </si>
+  <si>
+    <t>あのう、すみません。</t>
+  </si>
+  <si>
+    <t>Um, excuse me.</t>
+  </si>
+  <si>
+    <t>おてあらいはどこですか。</t>
+  </si>
+  <si>
+    <t>Where's the restroom?</t>
+  </si>
+  <si>
+    <t>ああ、すぐちかくです。</t>
+  </si>
+  <si>
+    <t>Oh, it's close by.</t>
+  </si>
+  <si>
+    <t>このさきみぎです。</t>
+  </si>
+  <si>
+    <t>Go farther ahead and to the right.</t>
+  </si>
+  <si>
+    <t>どうもありがとうございます！</t>
+  </si>
+  <si>
+    <t>Thank you very much!</t>
+  </si>
+  <si>
+    <t>いいえ。</t>
+  </si>
+  <si>
+    <t>No problem.</t>
+  </si>
+  <si>
+    <t>Where is the restroom? / As for the restroom, where is it?</t>
+  </si>
+  <si>
+    <t>/otearai wa doko desu ka?/</t>
+  </si>
+  <si>
+    <t>Where</t>
+  </si>
+  <si>
+    <t>Where is it?</t>
+  </si>
+  <si>
+    <t>どこですか。</t>
+  </si>
+  <si>
+    <t>/doko desu ka/</t>
+  </si>
+  <si>
+    <t>おてあらい</t>
+  </si>
+  <si>
+    <t>restroom</t>
+  </si>
+  <si>
+    <t>/otearai/</t>
+  </si>
+  <si>
+    <t>えき</t>
+  </si>
+  <si>
+    <t>(train) station</t>
+  </si>
+  <si>
+    <t>/eki/</t>
+  </si>
+  <si>
+    <t>とうきょうえき</t>
+  </si>
+  <si>
+    <t>Tokyo Station</t>
+  </si>
+  <si>
+    <t>/tookyoo eki/</t>
+  </si>
+  <si>
+    <t>こうえん</t>
+  </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>/kooen/</t>
+  </si>
+  <si>
+    <t>Ueno Park</t>
+  </si>
+  <si>
+    <t>/ueno kooen/</t>
+  </si>
+  <si>
+    <t>うえのこうえん</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1431,6 +1530,19 @@
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1461,7 +1573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1476,6 +1588,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1756,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K242"/>
+  <dimension ref="A1:K274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="A275" sqref="A275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2610,17 +2724,121 @@
         <v>287</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A241" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>288</v>
       </c>
       <c r="B242" t="s">
         <v>290</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A245" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>307</v>
+      </c>
+      <c r="B246" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A249" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>308</v>
+      </c>
+      <c r="C250" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A253" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>312</v>
+      </c>
+      <c r="B254" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A257" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>305</v>
+      </c>
+      <c r="G258" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A261" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>315</v>
+      </c>
+      <c r="C262" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A265" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>318</v>
+      </c>
+      <c r="C266" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A269" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>321</v>
+      </c>
+      <c r="B270" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A273" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>323</v>
+      </c>
+      <c r="C274" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -2631,10 +2849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A84"/>
+  <dimension ref="A1:A110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,6 +3060,70 @@
       </c>
     </row>
     <row r="84" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="11"/>
+    </row>
+    <row r="103" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="352">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -1476,6 +1476,84 @@
   </si>
   <si>
     <t>うえのこうえん</t>
+  </si>
+  <si>
+    <t>Where is it on this map? / Where is of this map?</t>
+  </si>
+  <si>
+    <t>/kono chizu no doko desu ka?/</t>
+  </si>
+  <si>
+    <t>ちず</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>/Chizu/</t>
+  </si>
+  <si>
+    <t>このちず</t>
+  </si>
+  <si>
+    <t>this map</t>
+  </si>
+  <si>
+    <t>/kono chizu/</t>
+  </si>
+  <si>
+    <t>こうばん this tiny neighborhood police stand is marked with the golden emblem of a rising sun</t>
+  </si>
+  <si>
+    <t>, and manned by a couple of policemen whose duties include giving directions to visitors.</t>
+  </si>
+  <si>
+    <t>ホテル</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>/hoteru/</t>
+  </si>
+  <si>
+    <t>Where is Tokyo hotel?</t>
+  </si>
+  <si>
+    <t>/tookyoo hoteru wa doko desu ka/</t>
+  </si>
+  <si>
+    <t>/tookyoo hoteru wa kono chizu no doko desu ka?/</t>
+  </si>
+  <si>
+    <t>Where is Tokyo hotel on this map?</t>
+  </si>
+  <si>
+    <t>Japanese-style inn</t>
+  </si>
+  <si>
+    <t>りょかん</t>
+  </si>
+  <si>
+    <t>/ryokan/</t>
+  </si>
+  <si>
+    <t>なかい</t>
+  </si>
+  <si>
+    <t>/nakai/</t>
+  </si>
+  <si>
+    <t>Parlor maids in traditional kimonos</t>
+  </si>
+  <si>
+    <t>このちずのどこですか</t>
+  </si>
+  <si>
+    <t>とうきょうホテルはどこですか</t>
+  </si>
+  <si>
+    <t>とうきょうホテルはこのちずのどこですか</t>
   </si>
 </sst>
 </file>
@@ -1870,10 +1948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K274"/>
+  <dimension ref="A1:K306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="A275" sqref="A275"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="A309" sqref="A309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2828,17 +2906,121 @@
         <v>322</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A273" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>323</v>
       </c>
       <c r="C274" t="s">
         <v>324</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A277" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>329</v>
+      </c>
+      <c r="B278" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A281" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>332</v>
+      </c>
+      <c r="B282" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A285" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>326</v>
+      </c>
+      <c r="F286" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A289" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>337</v>
+      </c>
+      <c r="B290" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A293" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>339</v>
+      </c>
+      <c r="D294" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A297" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>342</v>
+      </c>
+      <c r="E298" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A301" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>343</v>
+      </c>
+      <c r="C302" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A305" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C305" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3132,10 +3314,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3414,6 +3596,16 @@
         <v>292</v>
       </c>
     </row>
+    <row r="113" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A113" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="424">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -1554,13 +1554,312 @@
   </si>
   <si>
     <t>とうきょうホテルはこのちずのどこですか</t>
+  </si>
+  <si>
+    <t>Is there a bookstore around here?</t>
+  </si>
+  <si>
+    <t>/kono hen ni honya ga arimasu ka/</t>
+  </si>
+  <si>
+    <t>ありますか</t>
+  </si>
+  <si>
+    <t>there is</t>
+  </si>
+  <si>
+    <t>/arimasu/</t>
+  </si>
+  <si>
+    <t>ほん</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>/hon/</t>
+  </si>
+  <si>
+    <t>ほんや</t>
+  </si>
+  <si>
+    <t>bookstore</t>
+  </si>
+  <si>
+    <t>/honya/</t>
+  </si>
+  <si>
+    <r>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> is a particle we need to use along with the verb </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>あります</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (there is) to indicate what exists at a place.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>このへんに</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFC78320"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>around here</t>
+  </si>
+  <si>
+    <t>/kono hen ni/</t>
+  </si>
+  <si>
+    <t>How are you?</t>
+  </si>
+  <si>
+    <t>おげんきですか。</t>
+  </si>
+  <si>
+    <t>/ogenki desu ka/</t>
+  </si>
+  <si>
+    <t>げんきです</t>
+  </si>
+  <si>
+    <t>is/am/are fine (when referring to one's well-being)</t>
+  </si>
+  <si>
+    <t>/genki desu/</t>
+  </si>
+  <si>
+    <t>このへんにほんやがありますか</t>
+  </si>
+  <si>
+    <r>
+      <t>げんきですか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> has some limitations.</t>
+    </r>
+  </si>
+  <si>
+    <t> In general, this greeting is reserved for acquaintances whom we haven't seen for a while. </t>
+  </si>
+  <si>
+    <t>We don't use it for total strangers or people who we meet on a daily basis. </t>
+  </si>
+  <si>
+    <r>
+      <t>All it takes to make the phrase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>げんきですか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (How are you?) </t>
+    </r>
+  </si>
+  <si>
+    <t>more polite is to add a little word お before the phrase.</t>
+  </si>
+  <si>
+    <t>おかげさまで。</t>
+  </si>
+  <si>
+    <t>/okagesama de/</t>
+  </si>
+  <si>
+    <r>
+      <t>おかげさまで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> is a polite phrase that expresses the speaker's gratitude</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">response to someone's inquiry after our health, family, business, and so on.  </t>
+  </si>
+  <si>
+    <t>A native speaker would say it with a slight bow.</t>
+  </si>
+  <si>
+    <t>Thank you. (as a response to an inquiry after one's well-being) / by your help / owing to you</t>
+  </si>
+  <si>
+    <t>Yes, I'm fine. Thank you.</t>
+  </si>
+  <si>
+    <t>/ee, genki desu. Okagesama de/</t>
+  </si>
+  <si>
+    <t>fresh; refreshing</t>
+  </si>
+  <si>
+    <t>/sawayaka/</t>
+  </si>
+  <si>
+    <t>さわやか</t>
+  </si>
+  <si>
+    <t>ええ、げんきです。おかげさまで。</t>
+  </si>
+  <si>
+    <t>ほんとうにさわやかです</t>
+  </si>
+  <si>
+    <t>Truly refreshing</t>
+  </si>
+  <si>
+    <t>/hontoo ni sawayaka desu/</t>
+  </si>
+  <si>
+    <t>あめ</t>
+  </si>
+  <si>
+    <t>rain or rainy weather</t>
+  </si>
+  <si>
+    <t>/ame/</t>
+  </si>
+  <si>
+    <t>ひどい</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>/hidoi/</t>
+  </si>
+  <si>
+    <t>ひどいさむい</t>
+  </si>
+  <si>
+    <t>/hidoi samui/</t>
+  </si>
+  <si>
+    <t>terrible rain</t>
+  </si>
+  <si>
+    <t>indeed</t>
+  </si>
+  <si>
+    <t>ほんとうに</t>
+  </si>
+  <si>
+    <t>/hontoo ni/</t>
+  </si>
+  <si>
+    <t>tomorrow</t>
+  </si>
+  <si>
+    <t>あした</t>
+  </si>
+  <si>
+    <t>/ashita/</t>
+  </si>
+  <si>
+    <t>おやすみなさい。</t>
+  </si>
+  <si>
+    <t>Good night</t>
+  </si>
+  <si>
+    <t>/oyasuminasai/</t>
+  </si>
+  <si>
+    <t>next week</t>
+  </si>
+  <si>
+    <t>らいしゅう</t>
+  </si>
+  <si>
+    <t>/raishuu/</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>げつようび</t>
+  </si>
+  <si>
+    <t>/getsu-yoobi/</t>
+  </si>
+  <si>
+    <t>on Monday</t>
+  </si>
+  <si>
+    <t>げつようびに</t>
+  </si>
+  <si>
+    <t>/getsu-yoobi ni/</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>きんようび</t>
+  </si>
+  <si>
+    <t>/kin-yoobi/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1621,6 +1920,20 @@
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FFC78320"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FFEC1E23"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1651,7 +1964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1668,6 +1981,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1948,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K306"/>
+  <dimension ref="A1:K390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="A309" sqref="A309"/>
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="A391" sqref="A391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,1030 +2311,1303 @@
     </row>
     <row r="13" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
+      <c r="A14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C14" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
+      <c r="A18" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C33" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>398</v>
+      </c>
+      <c r="B38" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A41" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" t="s">
-        <v>48</v>
+        <v>402</v>
+      </c>
+      <c r="C46" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>66</v>
+        <v>370</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A65" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>367</v>
+      </c>
+      <c r="C66" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A69" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A73" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A77" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A81" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A85" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D85" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>68</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C86" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A65" s="3" t="s">
+    <row r="89" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A89" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>84</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B90" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A69" s="3" t="s">
+    <row r="93" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A93" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H93" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>75</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C94" t="s">
         <v>76</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H94" t="s">
         <v>78</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K94" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A73" s="3" t="s">
+    <row r="97" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A97" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H97" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>75</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C98" t="s">
         <v>81</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H98" t="s">
         <v>78</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K98" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A77" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A81" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" t="s">
-        <v>95</v>
-      </c>
-      <c r="E82" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A85" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>96</v>
-      </c>
-      <c r="C86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A89" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A93" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>102</v>
-      </c>
-      <c r="C94" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A97" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>106</v>
-      </c>
-      <c r="B98" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="E101" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>126</v>
-      </c>
-      <c r="D102" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>127</v>
-      </c>
-      <c r="B106" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+        <v>385</v>
+      </c>
+      <c r="D106" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D109" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>140</v>
+        <v>387</v>
+      </c>
+      <c r="C110" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A113" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C113" t="s">
-        <v>143</v>
+        <v>404</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>142</v>
+        <v>403</v>
+      </c>
+      <c r="B114" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A117" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F117" t="s">
-        <v>137</v>
+        <v>391</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>134</v>
+        <v>392</v>
       </c>
       <c r="C118" t="s">
-        <v>135</v>
+        <v>393</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A121" s="3" t="s">
-        <v>145</v>
+        <v>87</v>
+      </c>
+      <c r="C121" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>144</v>
-      </c>
-      <c r="B122" t="s">
-        <v>146</v>
+        <v>88</v>
+      </c>
+      <c r="C122" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A125" s="3" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="B126" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="E126" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="F126" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A129" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>121</v>
-      </c>
-      <c r="D130" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+      <c r="C130" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A133" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="B134" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A137" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E137" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="C138" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A141" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C141" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="D141" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>162</v>
+        <v>106</v>
+      </c>
+      <c r="B142" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A145" s="3" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="D146" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A149" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D149" t="s">
-        <v>262</v>
+        <v>128</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>261</v>
+      <c r="A150" t="s">
+        <v>127</v>
+      </c>
+      <c r="B150" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A153" s="3" t="s">
-        <v>155</v>
+        <v>138</v>
+      </c>
+      <c r="D153" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>154</v>
-      </c>
-      <c r="D154" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A157" s="3" t="s">
-        <v>166</v>
+        <v>141</v>
+      </c>
+      <c r="C157" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A161" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F161" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>134</v>
+      </c>
+      <c r="C162" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A165" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>144</v>
+      </c>
+      <c r="B166" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A169" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>147</v>
+      </c>
+      <c r="B170" t="s">
+        <v>151</v>
+      </c>
+      <c r="E170" t="s">
+        <v>147</v>
+      </c>
+      <c r="F170" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A173" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>121</v>
+      </c>
+      <c r="D174" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A177" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>159</v>
+      </c>
+      <c r="B178" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A181" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>176</v>
+      </c>
+      <c r="C182" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A185" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C185" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A189" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>163</v>
+      </c>
+      <c r="D190" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A193" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D193" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A197" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>154</v>
+      </c>
+      <c r="D198" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A201" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>167</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B202" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A161" s="3" t="s">
+    <row r="205" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A205" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>173</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B206" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A165" s="3" t="s">
+    <row r="209" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A209" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D209" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>199</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B210" t="s">
         <v>197</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D210" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A169" s="3" t="s">
+    <row r="213" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A213" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>181</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C214" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A173" s="3" t="s">
+    <row r="217" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A217" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>230</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B218" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A177" s="3" t="s">
+    <row r="221" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A221" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>206</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B222" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A181" s="3" t="s">
+    <row r="225" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A225" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E225" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A185" s="3" t="s">
+    <row r="229" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A229" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>213</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C230" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A189" s="3" t="s">
+    <row r="233" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A233" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F189" s="3" t="s">
+      <c r="F233" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>220</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C234" t="s">
         <v>222</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F234" t="s">
         <v>225</v>
       </c>
-      <c r="I190" t="s">
+      <c r="I234" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A193" s="3" t="s">
+    <row r="237" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A237" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>228</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D238" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A197" s="3" t="s">
+    <row r="241" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A241" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>242</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D242" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A201" s="3" t="s">
+    <row r="245" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A245" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>239</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F246" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A205" s="3" t="s">
+    <row r="249" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A249" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>246</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C250" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A209" s="3" t="s">
+    <row r="253" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A253" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>251</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A213" s="3" t="s">
+    <row r="257" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A257" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>257</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B258" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A217" s="3" t="s">
+    <row r="261" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A261" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>265</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B262" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A221" s="3" t="s">
+    <row r="265" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A265" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>271</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B266" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A225" s="3" t="s">
+    <row r="269" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A269" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>276</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B270" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A229" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>281</v>
-      </c>
-      <c r="B230" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A233" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>267</v>
-      </c>
-      <c r="F234" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A237" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>286</v>
-      </c>
-      <c r="B238" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A241" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>288</v>
-      </c>
-      <c r="B242" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A245" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>307</v>
-      </c>
-      <c r="B246" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A249" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>308</v>
-      </c>
-      <c r="C250" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A253" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>312</v>
-      </c>
-      <c r="B254" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A257" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>305</v>
-      </c>
-      <c r="G258" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A261" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>315</v>
-      </c>
-      <c r="C262" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A265" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>318</v>
-      </c>
-      <c r="C266" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A269" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>321</v>
-      </c>
-      <c r="B270" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A273" s="3" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>323</v>
-      </c>
-      <c r="C274" t="s">
-        <v>324</v>
+        <v>281</v>
+      </c>
+      <c r="B274" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A277" s="3" t="s">
-        <v>328</v>
+        <v>268</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>329</v>
-      </c>
-      <c r="B278" t="s">
-        <v>330</v>
+        <v>267</v>
+      </c>
+      <c r="F278" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A281" s="3" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="B282" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A285" s="3" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>326</v>
-      </c>
-      <c r="F286" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+        <v>288</v>
+      </c>
+      <c r="B286" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A289" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="B290" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A293" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>339</v>
-      </c>
-      <c r="D294" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+        <v>308</v>
+      </c>
+      <c r="C294" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A297" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>342</v>
-      </c>
-      <c r="E298" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+        <v>312</v>
+      </c>
+      <c r="B298" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A301" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>343</v>
-      </c>
-      <c r="C302" t="s">
-        <v>345</v>
+        <v>305</v>
+      </c>
+      <c r="G302" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A305" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C305" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>315</v>
+      </c>
+      <c r="C306" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A309" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>318</v>
+      </c>
+      <c r="C310" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A313" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>321</v>
+      </c>
+      <c r="B314" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A317" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>323</v>
+      </c>
+      <c r="C318" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A321" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>329</v>
+      </c>
+      <c r="B322" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A325" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>332</v>
+      </c>
+      <c r="B326" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A329" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>326</v>
+      </c>
+      <c r="F330" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A333" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>337</v>
+      </c>
+      <c r="B334" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A337" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>339</v>
+      </c>
+      <c r="D338" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A341" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>342</v>
+      </c>
+      <c r="E342" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A345" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>343</v>
+      </c>
+      <c r="C346" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A349" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C349" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
         <v>348</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A353" s="12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>355</v>
+      </c>
+      <c r="B354" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A357" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A361" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+      <c r="C362" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A365" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+      <c r="C366" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A369" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>352</v>
+      </c>
+      <c r="E370" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A373" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>406</v>
+      </c>
+      <c r="C374" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A377" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>412</v>
+      </c>
+      <c r="C378" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A381" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>415</v>
+      </c>
+      <c r="B382" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A385" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>418</v>
+      </c>
+      <c r="C386" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A389" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>421</v>
+      </c>
+      <c r="B390" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -3314,10 +3901,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3596,14 +4183,59 @@
         <v>292</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>335</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A117" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B121" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B122" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B123" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B128" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Vocabulary" sheetId="3" r:id="rId1"/>
-    <sheet name="Conversation" sheetId="1" r:id="rId2"/>
-    <sheet name="Grammar" sheetId="2" r:id="rId3"/>
+    <sheet name="Number" sheetId="4" r:id="rId1"/>
+    <sheet name="Vocabulary" sheetId="3" r:id="rId2"/>
+    <sheet name="Conversation" sheetId="1" r:id="rId3"/>
+    <sheet name="Grammar" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="458">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -1853,13 +1854,127 @@
   </si>
   <si>
     <t>/kin-yoobi/</t>
+  </si>
+  <si>
+    <t>one (1)</t>
+  </si>
+  <si>
+    <r>
+      <t>いち</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>/ichi/</t>
+  </si>
+  <si>
+    <t>two (2)</t>
+  </si>
+  <si>
+    <t>に</t>
+  </si>
+  <si>
+    <t>/ni/</t>
+  </si>
+  <si>
+    <t>さん</t>
+  </si>
+  <si>
+    <t>three (3)</t>
+  </si>
+  <si>
+    <t>/san/</t>
+  </si>
+  <si>
+    <t>よん</t>
+  </si>
+  <si>
+    <t>four (4)</t>
+  </si>
+  <si>
+    <t>/yon/</t>
+  </si>
+  <si>
+    <t>ご</t>
+  </si>
+  <si>
+    <t>/go/</t>
+  </si>
+  <si>
+    <t>ごがつ</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>/go-gatsu/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">months a combination of a number and がつ (month).months </t>
+  </si>
+  <si>
+    <t>いちがつ</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>/ichi-gatsu/</t>
+  </si>
+  <si>
+    <t>しがつ</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>/shi-gatsu/</t>
+  </si>
+  <si>
+    <t>ろく</t>
+  </si>
+  <si>
+    <t>six (6)</t>
+  </si>
+  <si>
+    <t>/roku/</t>
+  </si>
+  <si>
+    <t>five (5)</t>
+  </si>
+  <si>
+    <t>なな</t>
+  </si>
+  <si>
+    <t>seven (7)</t>
+  </si>
+  <si>
+    <t>/nana/</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>しちがつ</t>
+  </si>
+  <si>
+    <t>/shichi-gatsu/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1931,6 +2046,13 @@
       <b/>
       <sz val="23"/>
       <color rgb="FFEC1E23"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FF4B4B4B"/>
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
@@ -2262,9 +2384,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B10" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>434</v>
+      </c>
+      <c r="B14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>451</v>
+      </c>
+      <c r="B18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>449</v>
+      </c>
+      <c r="B22" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>453</v>
+      </c>
+      <c r="B26" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B30" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>443</v>
+      </c>
+      <c r="B34" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>446</v>
+      </c>
+      <c r="B38" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>455</v>
+      </c>
+      <c r="B42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
       <selection activeCell="A391" sqref="A391"/>
     </sheetView>
   </sheetViews>
@@ -3616,7 +3896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A110"/>
   <sheetViews>
@@ -3899,12 +4179,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4233,9 +4513,14 @@
         <v>382</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>383</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Number" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="482">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -1968,6 +1968,116 @@
   </si>
   <si>
     <t>/shichi-gatsu/</t>
+  </si>
+  <si>
+    <t>はち</t>
+  </si>
+  <si>
+    <t>eight (8)</t>
+  </si>
+  <si>
+    <t>/hachi/</t>
+  </si>
+  <si>
+    <t>きゅう</t>
+  </si>
+  <si>
+    <t>nine (9)</t>
+  </si>
+  <si>
+    <t>/kyuu/</t>
+  </si>
+  <si>
+    <t>くがつ</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>/ku-gatsu/</t>
+  </si>
+  <si>
+    <t>じゅう</t>
+  </si>
+  <si>
+    <t>ten (10)</t>
+  </si>
+  <si>
+    <t>/juu/</t>
+  </si>
+  <si>
+    <t>じゅういち</t>
+  </si>
+  <si>
+    <t>eleven (11) / ten one</t>
+  </si>
+  <si>
+    <t>/juu ichi/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">じゅうに </t>
+  </si>
+  <si>
+    <t>twelve (12) / ten two</t>
+  </si>
+  <si>
+    <t>/juu ni/</t>
+  </si>
+  <si>
+    <t>じゅうにがつ</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>/jyuu ni-gatsu/</t>
+  </si>
+  <si>
+    <r>
+      <t>October in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>いずも</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> is called </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>かみありづき</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (the month with gods)!</t>
+    </r>
+  </si>
+  <si>
+    <t>This is because October is the month when all the gods in Japan (eight million of them)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> are said to travel to the ancient Shinto shrine in いずも (located in Shimane Prefecture) for their annual conference. </t>
   </si>
 </sst>
 </file>
@@ -2384,10 +2494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2485,67 +2595,198 @@
     </row>
     <row r="29" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>459</v>
+      </c>
+      <c r="B30" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>462</v>
+      </c>
+      <c r="B34" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>468</v>
+      </c>
+      <c r="B38" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>471</v>
+      </c>
+      <c r="D42" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>474</v>
+      </c>
+      <c r="D46" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A49" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>443</v>
+      </c>
+      <c r="B50" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A53" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>446</v>
+      </c>
+      <c r="B54" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B58" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>443</v>
-      </c>
-      <c r="B34" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>446</v>
-      </c>
-      <c r="B38" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A41" s="3" t="s">
+    <row r="61" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A61" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>455</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B62" t="s">
         <v>457</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A65" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>465</v>
+      </c>
+      <c r="C66" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A69" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>477</v>
+      </c>
+      <c r="C70" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A73" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>415</v>
+      </c>
+      <c r="B74" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A77" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>418</v>
+      </c>
+      <c r="C78" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A81" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>421</v>
+      </c>
+      <c r="B82" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K390"/>
+  <dimension ref="A1:K378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A391" sqref="A391"/>
+    <sheetView topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="A379" sqref="A379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3849,45 +4090,6 @@
       </c>
       <c r="C378" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A381" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>415</v>
-      </c>
-      <c r="B382" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A385" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>418</v>
-      </c>
-      <c r="C386" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A389" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>421</v>
-      </c>
-      <c r="B390" t="s">
-        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -4181,10 +4383,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4523,6 +4725,21 @@
         <v>441</v>
       </c>
     </row>
+    <row r="135" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>481</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="524">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -2078,6 +2078,132 @@
   </si>
   <si>
     <t xml:space="preserve"> are said to travel to the ancient Shinto shrine in いずも (located in Shimane Prefecture) for their annual conference. </t>
+  </si>
+  <si>
+    <t>しがつからとうきょうにすんでいます</t>
+  </si>
+  <si>
+    <t>I have been living in Tokyo since April</t>
+  </si>
+  <si>
+    <t>/shi-gatsu kara tookyoo ni sunde imasu/</t>
+  </si>
+  <si>
+    <t>すんでいます</t>
+  </si>
+  <si>
+    <t>live or have been living</t>
+  </si>
+  <si>
+    <t>/sunde imasu/</t>
+  </si>
+  <si>
+    <t>とうきょうに</t>
+  </si>
+  <si>
+    <t>in Tokyo (when referring to the place where something exists)</t>
+  </si>
+  <si>
+    <t>/tookyoo ni/</t>
+  </si>
+  <si>
+    <t>とうきょうにすんでいます</t>
+  </si>
+  <si>
+    <t>I live in Tokyo.</t>
+  </si>
+  <si>
+    <t>/tookyoo ni sunde imasu/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>しがつから</t>
+  </si>
+  <si>
+    <t>since April</t>
+  </si>
+  <si>
+    <t>/shi-gatsu kara/</t>
+  </si>
+  <si>
+    <t>Yokohama</t>
+  </si>
+  <si>
+    <t>よこはま</t>
+  </si>
+  <si>
+    <t>はる</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>/haru/</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>なつ</t>
+  </si>
+  <si>
+    <t>/natsu/</t>
+  </si>
+  <si>
+    <t>いま</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>/ima/</t>
+  </si>
+  <si>
+    <t>こうべ</t>
+  </si>
+  <si>
+    <t>Kobe</t>
+  </si>
+  <si>
+    <t>/koobe/</t>
+  </si>
+  <si>
+    <t>I live in Kobe now</t>
+  </si>
+  <si>
+    <t>いまこうべにすんでいます</t>
+  </si>
+  <si>
+    <t>/ima koobe ni sunde imasu/</t>
+  </si>
+  <si>
+    <t>came</t>
+  </si>
+  <si>
+    <t>きました</t>
+  </si>
+  <si>
+    <t>/kimashita/</t>
+  </si>
+  <si>
+    <t>ドイツ</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>/doitsu/</t>
+  </si>
+  <si>
+    <t>I cam from Germany</t>
+  </si>
+  <si>
+    <t>ドイツからきました</t>
+  </si>
+  <si>
+    <t>/doitsu kara kimashita/</t>
   </si>
 </sst>
 </file>
@@ -2494,10 +2620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2762,17 +2888,227 @@
         <v>420</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>421</v>
       </c>
       <c r="B82" t="s">
         <v>423</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A85" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>486</v>
+      </c>
+      <c r="D86" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A89" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E89" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A93" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>492</v>
+      </c>
+      <c r="C94" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A97" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>446</v>
+      </c>
+      <c r="B98" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A101" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A105" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>496</v>
+      </c>
+      <c r="C106" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A109" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>483</v>
+      </c>
+      <c r="E110" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A113" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A117" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>501</v>
+      </c>
+      <c r="B118" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A121" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>503</v>
+      </c>
+      <c r="B122" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A125" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>507</v>
+      </c>
+      <c r="B126" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A129" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>510</v>
+      </c>
+      <c r="B130" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A133" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>512</v>
+      </c>
+      <c r="C134" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A137" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>515</v>
+      </c>
+      <c r="B138" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A141" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>519</v>
+      </c>
+      <c r="B142" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A145" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>521</v>
+      </c>
+      <c r="C146" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="525">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -2204,6 +2204,29 @@
   </si>
   <si>
     <t>/doitsu kara kimashita/</t>
+  </si>
+  <si>
+    <r>
+      <t>the particle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF26F12"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> to indicate a point of time at which something takes place, just like "at," "in," or "on" in English!</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2620,10 +2643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,227 +2911,17 @@
         <v>420</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>421</v>
       </c>
       <c r="B82" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A85" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>486</v>
-      </c>
-      <c r="D86" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A89" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="E89" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A93" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>492</v>
-      </c>
-      <c r="C94" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A97" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>446</v>
-      </c>
-      <c r="B98" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A101" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>142</v>
-      </c>
-      <c r="B102" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A105" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>496</v>
-      </c>
-      <c r="C106" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A109" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>483</v>
-      </c>
-      <c r="E110" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A113" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A117" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>501</v>
-      </c>
-      <c r="B118" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A121" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>503</v>
-      </c>
-      <c r="B122" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A125" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>507</v>
-      </c>
-      <c r="B126" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A129" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>510</v>
-      </c>
-      <c r="B130" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A133" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>512</v>
-      </c>
-      <c r="C134" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A137" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>515</v>
-      </c>
-      <c r="B138" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A141" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>519</v>
-      </c>
-      <c r="B142" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A145" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>521</v>
-      </c>
-      <c r="C146" t="s">
-        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -3119,10 +2932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K378"/>
+  <dimension ref="A1:K442"/>
   <sheetViews>
-    <sheetView topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="A379" sqref="A379"/>
+    <sheetView topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="A443" sqref="A443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4426,6 +4239,216 @@
       </c>
       <c r="C378" t="s">
         <v>414</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A381" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>486</v>
+      </c>
+      <c r="D382" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A385" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E385" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A389" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>492</v>
+      </c>
+      <c r="C390" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A393" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>446</v>
+      </c>
+      <c r="B394" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A397" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>142</v>
+      </c>
+      <c r="B398" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A401" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>496</v>
+      </c>
+      <c r="C402" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A405" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>483</v>
+      </c>
+      <c r="E406" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A409" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A413" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>501</v>
+      </c>
+      <c r="B414" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A417" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>503</v>
+      </c>
+      <c r="B418" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A421" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>507</v>
+      </c>
+      <c r="B422" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A425" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>510</v>
+      </c>
+      <c r="B426" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A429" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>512</v>
+      </c>
+      <c r="C430" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A433" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>515</v>
+      </c>
+      <c r="B434" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A437" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>519</v>
+      </c>
+      <c r="B438" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A441" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>521</v>
+      </c>
+      <c r="C442" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -4719,10 +4742,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5076,6 +5099,11 @@
         <v>481</v>
       </c>
     </row>
+    <row r="140" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A140" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Number" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="534">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -2227,13 +2227,40 @@
       </rPr>
       <t> to indicate a point of time at which something takes place, just like "at," "in," or "on" in English!</t>
     </r>
+  </si>
+  <si>
+    <t>りゅうがく</t>
+  </si>
+  <si>
+    <t>studying abroad (as a noun)</t>
+  </si>
+  <si>
+    <t>/ryuugaku/</t>
+  </si>
+  <si>
+    <t>かんこく</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>/kankoku/</t>
+  </si>
+  <si>
+    <t>でも</t>
+  </si>
+  <si>
+    <t>but (used for starting a sentence)</t>
+  </si>
+  <si>
+    <t>/demo/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2315,6 +2342,13 @@
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2345,7 +2379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2363,6 +2397,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2645,7 +2680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
@@ -2932,10 +2967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K442"/>
+  <dimension ref="A1:K454"/>
   <sheetViews>
-    <sheetView topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="A455" sqref="A455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4412,12 +4447,12 @@
         <v>514</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A433" s="3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>515</v>
       </c>
@@ -4425,12 +4460,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A437" s="3" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>519</v>
       </c>
@@ -4438,17 +4473,56 @@
         <v>520</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A441" s="3" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>521</v>
       </c>
       <c r="C442" t="s">
         <v>523</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="A445" s="13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>526</v>
+      </c>
+      <c r="D446" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A449" s="13" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>529</v>
+      </c>
+      <c r="C450" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+      <c r="A453" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="C453" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="581">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -1357,29 +1357,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>In a business situation, however, you should never use </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFF26F12"/>
-        <rFont val="Lucida Sans Unicode"/>
-        <family val="2"/>
-      </rPr>
-      <t>さん</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Lucida Sans Unicode"/>
-        <family val="2"/>
-      </rPr>
-      <t> when introducing your coworker, or even your boss, to people outside your company!</t>
-    </r>
-  </si>
-  <si>
     <t>あのう、すみません。</t>
   </si>
   <si>
@@ -1420,9 +1397,6 @@
   </si>
   <si>
     <t>/otearai wa doko desu ka?/</t>
-  </si>
-  <si>
-    <t>Where</t>
   </si>
   <si>
     <t>Where is it?</t>
@@ -2116,9 +2090,6 @@
     <t>/tookyoo ni sunde imasu/</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>しがつから</t>
   </si>
   <si>
@@ -2254,6 +2225,382 @@
   </si>
   <si>
     <t>/demo/</t>
+  </si>
+  <si>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>わかります</t>
+  </si>
+  <si>
+    <t>/wakarimasu/</t>
+  </si>
+  <si>
+    <t>わかりません</t>
+  </si>
+  <si>
+    <t>don't understand</t>
+  </si>
+  <si>
+    <t>/wakarimasen/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a business situation, however, </t>
+  </si>
+  <si>
+    <t>you should never use さん when introducing your coworker, or even your boss, to people outside your company!</t>
+  </si>
+  <si>
+    <t>company employee</t>
+  </si>
+  <si>
+    <t>かいしゃいん</t>
+  </si>
+  <si>
+    <t>/kaisha-in/</t>
+  </si>
+  <si>
+    <r>
+      <t>かいしゃいん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> is a generic term for company employees, regardless of industry or gender.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Male company employees are often called </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>サラリーマン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (salary man).</t>
+    </r>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>がくせい</t>
+  </si>
+  <si>
+    <t>/gakusee/</t>
+  </si>
+  <si>
+    <r>
+      <t>がくせい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> is the term for university and junior college students</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>だいがくせい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (university student)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>たんだいせい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (junior college student)</t>
+    </r>
+  </si>
+  <si>
+    <t>せいと</t>
+  </si>
+  <si>
+    <t>high schools or lower grades / pupil</t>
+  </si>
+  <si>
+    <r>
+      <t>Graduate students are called </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>だいがくいんせい</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>professors is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>きょうじゅ</t>
+    </r>
+  </si>
+  <si>
+    <t>ごしゅじん</t>
+  </si>
+  <si>
+    <t>/goshujin/</t>
+  </si>
+  <si>
+    <r>
+      <t>おっと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>しゅじん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> to mention our own husband to someone else</t>
+    </r>
+  </si>
+  <si>
+    <t>omeone else's husband</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>ごしゅじんさま</t>
+  </si>
+  <si>
+    <t>いしゃ</t>
+  </si>
+  <si>
+    <t>medical doctor</t>
+  </si>
+  <si>
+    <t>/isha/</t>
+  </si>
+  <si>
+    <t>きょうし</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>/kyooshi/</t>
+  </si>
+  <si>
+    <t>"teacher"</t>
+  </si>
+  <si>
+    <r>
+      <t>きょうし</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>せんせい</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>きょうし</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> is a generic term</t>
+    </r>
+  </si>
+  <si>
+    <t>show your respect</t>
+  </si>
+  <si>
+    <r>
+      <t>せんせい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>も</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> is a particle and equivalent to "also," "too" or "either."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>replace the topic marker </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>も</t>
+    </r>
+  </si>
+  <si>
+    <t>おくさん</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>/okusan/</t>
+  </si>
+  <si>
+    <t>your own wife</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>つま</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>かない</t>
+    </r>
+  </si>
+  <si>
+    <t>someone else's wife</t>
+  </si>
+  <si>
+    <t>せんせい</t>
+  </si>
+  <si>
+    <t>/sensee/</t>
   </si>
 </sst>
 </file>
@@ -2316,12 +2663,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color rgb="FFFF0000"/>
-      <name val="Lucida Sans Unicode"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="23"/>
       <color rgb="FFC78320"/>
@@ -2346,6 +2687,12 @@
       <b/>
       <sz val="24"/>
       <color rgb="FFFF0000"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFF76600"/>
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
@@ -2394,9 +2741,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2680,7 +3027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
@@ -2688,275 +3035,275 @@
   <sheetData>
     <row r="1" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2" t="s">
         <v>424</v>
-      </c>
-      <c r="B2" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B6" t="s">
         <v>427</v>
-      </c>
-      <c r="B6" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B22" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B26" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B30" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B34" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B38" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D42" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D46" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B50" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B54" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B58" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>453</v>
+      </c>
+      <c r="B62" t="s">
         <v>455</v>
-      </c>
-      <c r="B62" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C66" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C70" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>413</v>
+      </c>
+      <c r="B74" t="s">
         <v>415</v>
-      </c>
-      <c r="B74" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>416</v>
+      </c>
+      <c r="C78" t="s">
         <v>418</v>
-      </c>
-      <c r="C78" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>419</v>
+      </c>
+      <c r="B82" t="s">
         <v>421</v>
-      </c>
-      <c r="B82" t="s">
-        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -2967,10 +3314,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K454"/>
+  <dimension ref="A1:K474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="A455" sqref="A455"/>
+    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="A470" sqref="A470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3016,15 +3363,15 @@
     </row>
     <row r="13" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
@@ -3081,28 +3428,28 @@
     </row>
     <row r="33" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C33" t="s">
         <v>394</v>
-      </c>
-      <c r="C33" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
@@ -3120,15 +3467,15 @@
     </row>
     <row r="45" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C46" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
@@ -3172,28 +3519,28 @@
     </row>
     <row r="61" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D61" t="s">
         <v>370</v>
-      </c>
-      <c r="D61" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>365</v>
+      </c>
+      <c r="C66" t="s">
         <v>367</v>
-      </c>
-      <c r="C66" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
@@ -3323,67 +3670,67 @@
     </row>
     <row r="101" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E101" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D106" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C110" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A113" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>401</v>
+      </c>
+      <c r="B114" t="s">
         <v>403</v>
-      </c>
-      <c r="B114" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A117" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C118" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
@@ -3873,12 +4220,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A257" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -3886,12 +4233,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A261" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>265</v>
       </c>
@@ -3899,25 +4246,34 @@
         <v>266</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A265" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D265" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>271</v>
       </c>
       <c r="B266" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="D266" t="s">
+        <v>574</v>
+      </c>
+      <c r="E266" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A269" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>276</v>
       </c>
@@ -3979,15 +4335,15 @@
     </row>
     <row r="289" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A289" s="3" t="s">
-        <v>150</v>
+        <v>307</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>307</v>
-      </c>
-      <c r="B290" t="s">
-        <v>151</v>
+        <v>306</v>
+      </c>
+      <c r="C290" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
@@ -3997,532 +4353,601 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>308</v>
-      </c>
-      <c r="C294" t="s">
         <v>310</v>
+      </c>
+      <c r="B294" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A297" s="3" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>312</v>
-      </c>
-      <c r="B298" t="s">
-        <v>313</v>
+        <v>304</v>
+      </c>
+      <c r="G298" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A301" s="3" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>305</v>
-      </c>
-      <c r="G302" t="s">
-        <v>306</v>
+        <v>313</v>
+      </c>
+      <c r="C302" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A305" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C306" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A309" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>318</v>
-      </c>
-      <c r="C310" t="s">
         <v>319</v>
+      </c>
+      <c r="B310" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A313" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>321</v>
       </c>
-      <c r="B314" t="s">
+      <c r="C314" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A317" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>323</v>
-      </c>
-      <c r="C318" t="s">
-        <v>324</v>
+        <v>327</v>
+      </c>
+      <c r="B318" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A321" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B322" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A325" s="3" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>332</v>
-      </c>
-      <c r="B326" t="s">
-        <v>333</v>
+        <v>324</v>
+      </c>
+      <c r="F326" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A329" s="3" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>326</v>
-      </c>
-      <c r="F330" t="s">
-        <v>327</v>
+        <v>335</v>
+      </c>
+      <c r="B330" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A333" s="3" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>337</v>
       </c>
-      <c r="B334" t="s">
+      <c r="D334" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A337" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>340</v>
+      </c>
+      <c r="E338" t="s">
         <v>339</v>
-      </c>
-      <c r="D338" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A341" s="3" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>342</v>
-      </c>
-      <c r="E342" t="s">
         <v>341</v>
+      </c>
+      <c r="C342" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A345" s="3" t="s">
         <v>344</v>
       </c>
+      <c r="C345" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>343</v>
-      </c>
-      <c r="C346" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A349" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C349" t="s">
-        <v>347</v>
+      <c r="A349" s="11" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A353" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B350" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A353" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B354" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A357" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>358</v>
-      </c>
-      <c r="B358" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="C358" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A361" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A365" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>365</v>
-      </c>
-      <c r="C366" t="s">
-        <v>366</v>
+        <v>350</v>
+      </c>
+      <c r="E366" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A369" s="3" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>352</v>
-      </c>
-      <c r="E370" t="s">
-        <v>353</v>
+        <v>404</v>
+      </c>
+      <c r="C370" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A373" s="3" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C374" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A377" s="3" t="s">
-        <v>413</v>
+        <v>483</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>412</v>
-      </c>
-      <c r="C378" t="s">
-        <v>414</v>
+        <v>484</v>
+      </c>
+      <c r="D378" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A381" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
+      </c>
+      <c r="E381" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>486</v>
-      </c>
-      <c r="D382" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A385" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="E385" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>489</v>
+        <v>490</v>
+      </c>
+      <c r="C386" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A389" s="3" t="s">
-        <v>491</v>
+        <v>443</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>492</v>
-      </c>
-      <c r="C390" t="s">
-        <v>493</v>
+        <v>444</v>
+      </c>
+      <c r="B390" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A393" s="3" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>446</v>
-      </c>
-      <c r="B394" t="s">
-        <v>447</v>
+        <v>493</v>
+      </c>
+      <c r="C394" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A397" s="3" t="s">
-        <v>141</v>
+        <v>480</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>142</v>
-      </c>
-      <c r="B398" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B399" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+        <v>481</v>
+      </c>
+      <c r="E398" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A401" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>496</v>
-      </c>
-      <c r="C402" t="s">
+    <row r="405" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A405" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A405" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>483</v>
-      </c>
-      <c r="E406" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+        <v>498</v>
+      </c>
+      <c r="B406" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A409" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+      <c r="B410" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A413" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B414" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A417" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B418" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A421" s="3" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>507</v>
-      </c>
-      <c r="B422" t="s">
-        <v>508</v>
+        <v>509</v>
+      </c>
+      <c r="C422" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A425" s="3" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B426" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A429" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>512</v>
-      </c>
-      <c r="C430" t="s">
-        <v>514</v>
+        <v>516</v>
+      </c>
+      <c r="B430" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A433" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>515</v>
-      </c>
-      <c r="B434" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A437" s="3" t="s">
         <v>518</v>
+      </c>
+      <c r="C434" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="A437" s="12" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>519</v>
-      </c>
-      <c r="B438" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="A441" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="D438" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="A441" s="12" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="C442" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="30" x14ac:dyDescent="0.4">
-      <c r="A445" s="13" t="s">
-        <v>525</v>
+      <c r="A445" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="C445" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>526</v>
-      </c>
-      <c r="D446" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A449" s="13" t="s">
-        <v>528</v>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A449" s="3" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C450" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" ht="30" x14ac:dyDescent="0.4">
-      <c r="A453" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="C453" t="s">
         <v>533</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A453" s="3" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>532</v>
+        <v>535</v>
+      </c>
+      <c r="C454" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A457" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>539</v>
+      </c>
+      <c r="C458" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A461" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>544</v>
+      </c>
+      <c r="B462" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A465" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>286</v>
+      </c>
+      <c r="B466" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A469" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>561</v>
+      </c>
+      <c r="C470" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A473" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>564</v>
+      </c>
+      <c r="B474" t="s">
+        <v>565</v>
+      </c>
+      <c r="E474" t="s">
+        <v>564</v>
+      </c>
+      <c r="F474" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -4535,9 +4960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A110"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4745,66 +5168,66 @@
     </row>
     <row r="84" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
-        <v>293</v>
+      <c r="A87" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="10"/>
+    </row>
+    <row r="103" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
-    </row>
-    <row r="103" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="110" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4816,10 +5239,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5095,87 +5518,201 @@
     </row>
     <row r="110" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>292</v>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B121" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B122" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B123" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B128" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A143" s="13" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B144" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A147" s="13" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B148" s="13" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B149" s="13" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B150" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B151" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B152" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A155" s="13" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B156" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="J156" t="s">
+        <v>558</v>
+      </c>
+      <c r="K156" s="13" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B160" s="13" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B161" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F161" s="13" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A164" s="13" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B165" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A168" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A169" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E169" s="13" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="598">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -2601,6 +2601,57 @@
   </si>
   <si>
     <t>/sensee/</t>
+  </si>
+  <si>
+    <t>Excuse me for asking, but</t>
+  </si>
+  <si>
+    <t>しつれいですが</t>
+  </si>
+  <si>
+    <t>/shitsuree desu ga/</t>
+  </si>
+  <si>
+    <t>くに</t>
+  </si>
+  <si>
+    <t>country or nation</t>
+  </si>
+  <si>
+    <t>/kuni/</t>
+  </si>
+  <si>
+    <t>work or job</t>
+  </si>
+  <si>
+    <t>しごと</t>
+  </si>
+  <si>
+    <t>What do you do for a living?</t>
+  </si>
+  <si>
+    <t>/shigoto/</t>
+  </si>
+  <si>
+    <t>As for work?</t>
+  </si>
+  <si>
+    <t>おしごとは？</t>
+  </si>
+  <si>
+    <t>/oshigoto ha/</t>
+  </si>
+  <si>
+    <t>As for country?</t>
+  </si>
+  <si>
+    <t>What is your home country?</t>
+  </si>
+  <si>
+    <t>おくには？</t>
+  </si>
+  <si>
+    <t>/okuni ha/</t>
   </si>
 </sst>
 </file>
@@ -3314,10 +3365,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K474"/>
+  <dimension ref="A1:K486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="A470" sqref="A470"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="A487" sqref="A487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4948,6 +4999,69 @@
       </c>
       <c r="F474" t="s">
         <v>580</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A477" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>581</v>
+      </c>
+      <c r="D478" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A481" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C481" t="s">
+        <v>586</v>
+      </c>
+      <c r="E481" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="H481" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>585</v>
+      </c>
+      <c r="E482" t="s">
+        <v>595</v>
+      </c>
+      <c r="H482" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A485" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C485" t="s">
+        <v>590</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="I485" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>587</v>
+      </c>
+      <c r="E486" t="s">
+        <v>589</v>
+      </c>
+      <c r="H486" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="606">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -2639,9 +2639,6 @@
     <t>おしごとは？</t>
   </si>
   <si>
-    <t>/oshigoto ha/</t>
-  </si>
-  <si>
     <t>As for country?</t>
   </si>
   <si>
@@ -2651,7 +2648,34 @@
     <t>おくには？</t>
   </si>
   <si>
-    <t>/okuni ha/</t>
+    <t>who or whom</t>
+  </si>
+  <si>
+    <t>どなた</t>
+  </si>
+  <si>
+    <t>/donata/</t>
+  </si>
+  <si>
+    <t>だれ</t>
+  </si>
+  <si>
+    <t>/dare/</t>
+  </si>
+  <si>
+    <t>Who is the person you are with? / As for that one, who is it?</t>
+  </si>
+  <si>
+    <t>そちらはどなたですか。</t>
+  </si>
+  <si>
+    <t>/sochira wa donata desu ka/</t>
+  </si>
+  <si>
+    <t>/oshigoto wa/</t>
+  </si>
+  <si>
+    <t>/okuni wa/</t>
   </si>
 </sst>
 </file>
@@ -3365,10 +3389,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K486"/>
+  <dimension ref="A1:K494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="A487" sqref="A487"/>
+    <sheetView tabSelected="1" topLeftCell="A489" workbookViewId="0">
+      <selection activeCell="A493" sqref="A493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5022,10 +5046,10 @@
         <v>586</v>
       </c>
       <c r="E481" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H481" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.25">
@@ -5033,10 +5057,10 @@
         <v>585</v>
       </c>
       <c r="E482" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H482" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="485" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
@@ -5050,7 +5074,7 @@
         <v>592</v>
       </c>
       <c r="I485" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.25">
@@ -5062,6 +5086,38 @@
       </c>
       <c r="H486" t="s">
         <v>591</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A489" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C489" t="s">
+        <v>600</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G489" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A493" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="G493" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="624">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -2676,6 +2676,71 @@
   </si>
   <si>
     <t>/okuni wa/</t>
+  </si>
+  <si>
+    <r>
+      <t>someone else's husband, we should use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>ごしゅじん</t>
+    </r>
+  </si>
+  <si>
+    <t>かない</t>
+  </si>
+  <si>
+    <t>/kanai/</t>
+  </si>
+  <si>
+    <t>English teacher</t>
+  </si>
+  <si>
+    <t>えいごきょうし</t>
+  </si>
+  <si>
+    <t>/eego kyooshi/</t>
+  </si>
+  <si>
+    <t>store clerk</t>
+  </si>
+  <si>
+    <t>てんいん</t>
+  </si>
+  <si>
+    <t>/tenin/</t>
+  </si>
+  <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>エンジニア</t>
+  </si>
+  <si>
+    <t>/enjinia/</t>
+  </si>
+  <si>
+    <t>computer programmer</t>
+  </si>
+  <si>
+    <t>プログラマー</t>
+  </si>
+  <si>
+    <t>/puroguramaa/</t>
+  </si>
+  <si>
+    <t>To make an "either/or" question in Japanese, we can simply ask two questions in a row.</t>
+  </si>
+  <si>
+    <t>わたしはプログラマーです。つまはえいごきょうしです。</t>
+  </si>
+  <si>
+    <t>I'm a computer programmer. My wife is an English teacher.</t>
   </si>
 </sst>
 </file>
@@ -3389,10 +3454,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K494"/>
+  <dimension ref="A1:K506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A489" workbookViewId="0">
-      <selection activeCell="A493" sqref="A493"/>
+    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="A507" sqref="A507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4295,12 +4360,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A257" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -4308,12 +4373,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A261" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>265</v>
       </c>
@@ -4321,34 +4386,40 @@
         <v>266</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A265" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="C265" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="F265" s="3" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>271</v>
       </c>
       <c r="B266" t="s">
         <v>272</v>
       </c>
-      <c r="D266" t="s">
+      <c r="C266" t="s">
+        <v>608</v>
+      </c>
+      <c r="F266" t="s">
         <v>574</v>
       </c>
-      <c r="E266" t="s">
+      <c r="G266" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A269" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>276</v>
       </c>
@@ -4386,6 +4457,9 @@
       <c r="A281" s="3" t="s">
         <v>285</v>
       </c>
+      <c r="D281" s="3" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
@@ -4394,6 +4468,12 @@
       <c r="B282" t="s">
         <v>287</v>
       </c>
+      <c r="D282" t="s">
+        <v>286</v>
+      </c>
+      <c r="E282" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="285" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A285" s="3" t="s">
@@ -4979,50 +5059,50 @@
     </row>
     <row r="465" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A465" s="3" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>286</v>
-      </c>
-      <c r="B466" t="s">
-        <v>555</v>
+        <v>561</v>
+      </c>
+      <c r="C466" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A469" s="3" t="s">
-        <v>560</v>
+        <v>563</v>
+      </c>
+      <c r="E469" s="3" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>561</v>
-      </c>
-      <c r="C470" t="s">
-        <v>562</v>
+        <v>564</v>
+      </c>
+      <c r="B470" t="s">
+        <v>565</v>
+      </c>
+      <c r="E470" t="s">
+        <v>564</v>
+      </c>
+      <c r="F470" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A473" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="E473" s="3" t="s">
-        <v>579</v>
+        <v>610</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>564</v>
-      </c>
-      <c r="B474" t="s">
-        <v>565</v>
-      </c>
-      <c r="E474" t="s">
-        <v>564</v>
-      </c>
-      <c r="F474" t="s">
-        <v>580</v>
+        <v>609</v>
+      </c>
+      <c r="C474" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
@@ -5118,6 +5198,45 @@
     <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>601</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A497" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>612</v>
+      </c>
+      <c r="C498" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A501" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>615</v>
+      </c>
+      <c r="B502" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A505" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>618</v>
+      </c>
+      <c r="D506" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -5128,9 +5247,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A110"/>
+  <dimension ref="A1:A114"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5336,71 +5457,88 @@
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>293</v>
-      </c>
-    </row>
+    <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+    </row>
+    <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
+        <v>297</v>
+      </c>
     </row>
     <row r="103" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>301</v>
-      </c>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="10"/>
     </row>
     <row r="107" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="110" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5409,10 +5547,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K169"/>
+  <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5885,6 +6023,26 @@
         <v>573</v>
       </c>
     </row>
+    <row r="172" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A172" s="13" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A173" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B174" s="13" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A177" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="627">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -1537,9 +1537,6 @@
     <t>/kono hen ni honya ga arimasu ka/</t>
   </si>
   <si>
-    <t>ありますか</t>
-  </si>
-  <si>
     <t>there is</t>
   </si>
   <si>
@@ -2741,6 +2738,18 @@
   </si>
   <si>
     <t>I'm a computer programmer. My wife is an English teacher.</t>
+  </si>
+  <si>
+    <t>あります</t>
+  </si>
+  <si>
+    <t>イギリス</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>/igirisu/</t>
   </si>
 </sst>
 </file>
@@ -3175,275 +3184,275 @@
   <sheetData>
     <row r="1" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B10" t="s">
         <v>429</v>
-      </c>
-      <c r="B10" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" t="s">
         <v>432</v>
-      </c>
-      <c r="B14" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>446</v>
+      </c>
+      <c r="B22" t="s">
         <v>447</v>
-      </c>
-      <c r="B22" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>450</v>
+      </c>
+      <c r="B26" t="s">
         <v>451</v>
-      </c>
-      <c r="B26" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>456</v>
+      </c>
+      <c r="B30" t="s">
         <v>457</v>
-      </c>
-      <c r="B30" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>459</v>
+      </c>
+      <c r="B34" t="s">
         <v>460</v>
-      </c>
-      <c r="B34" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>465</v>
+      </c>
+      <c r="B38" t="s">
         <v>466</v>
-      </c>
-      <c r="B38" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>468</v>
+      </c>
+      <c r="D42" t="s">
         <v>469</v>
-      </c>
-      <c r="D42" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>471</v>
+      </c>
+      <c r="D46" t="s">
         <v>472</v>
-      </c>
-      <c r="D46" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>440</v>
+      </c>
+      <c r="B50" t="s">
         <v>441</v>
-      </c>
-      <c r="B50" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>443</v>
+      </c>
+      <c r="B54" t="s">
         <v>444</v>
-      </c>
-      <c r="B54" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B58" t="s">
         <v>437</v>
-      </c>
-      <c r="B58" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B62" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>462</v>
+      </c>
+      <c r="C66" t="s">
         <v>463</v>
-      </c>
-      <c r="C66" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>474</v>
+      </c>
+      <c r="C70" t="s">
         <v>475</v>
-      </c>
-      <c r="C70" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B74" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C78" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B82" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -3454,10 +3463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K506"/>
+  <dimension ref="A1:K510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507"/>
+    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
+      <selection activeCell="A512" sqref="A512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3503,15 +3512,15 @@
     </row>
     <row r="13" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C14" t="s">
         <v>408</v>
-      </c>
-      <c r="C14" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
@@ -3568,28 +3577,28 @@
     </row>
     <row r="33" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>395</v>
+      </c>
+      <c r="B38" t="s">
         <v>396</v>
-      </c>
-      <c r="B38" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
@@ -3607,15 +3616,15 @@
     </row>
     <row r="45" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C46" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
@@ -3659,28 +3668,28 @@
     </row>
     <row r="61" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C66" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
@@ -3810,67 +3819,67 @@
     </row>
     <row r="101" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E101" t="s">
         <v>377</v>
-      </c>
-      <c r="E101" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>382</v>
+      </c>
+      <c r="D106" t="s">
         <v>383</v>
-      </c>
-      <c r="D106" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>384</v>
+      </c>
+      <c r="C110" t="s">
         <v>385</v>
-      </c>
-      <c r="C110" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A113" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B114" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A117" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>389</v>
+      </c>
+      <c r="C118" t="s">
         <v>390</v>
-      </c>
-      <c r="C118" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
@@ -4391,10 +4400,10 @@
         <v>270</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -4405,13 +4414,13 @@
         <v>272</v>
       </c>
       <c r="C266" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F266" t="s">
+        <v>573</v>
+      </c>
+      <c r="G266" t="s">
         <v>574</v>
-      </c>
-      <c r="G266" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
@@ -4458,7 +4467,7 @@
         <v>285</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -4472,7 +4481,7 @@
         <v>286</v>
       </c>
       <c r="E282" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
@@ -4685,59 +4694,59 @@
     </row>
     <row r="349" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A349" s="11" t="s">
-        <v>352</v>
+        <v>623</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" t="s">
         <v>353</v>
-      </c>
-      <c r="B350" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A353" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
+        <v>355</v>
+      </c>
+      <c r="B354" t="s">
         <v>356</v>
-      </c>
-      <c r="B354" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A357" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
+        <v>358</v>
+      </c>
+      <c r="C358" t="s">
         <v>359</v>
-      </c>
-      <c r="C358" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A361" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
+        <v>362</v>
+      </c>
+      <c r="C362" t="s">
         <v>363</v>
-      </c>
-      <c r="C362" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A365" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -4750,493 +4759,506 @@
     </row>
     <row r="369" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A369" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C370" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A373" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C374" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A377" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
+        <v>483</v>
+      </c>
+      <c r="D378" t="s">
         <v>484</v>
-      </c>
-      <c r="D378" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A381" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E381" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A385" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>489</v>
+      </c>
+      <c r="C386" t="s">
         <v>490</v>
-      </c>
-      <c r="C386" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A389" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>443</v>
+      </c>
+      <c r="B390" t="s">
         <v>444</v>
-      </c>
-      <c r="B390" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A393" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>492</v>
+      </c>
+      <c r="C394" t="s">
         <v>493</v>
-      </c>
-      <c r="C394" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A397" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>480</v>
+      </c>
+      <c r="E398" t="s">
         <v>481</v>
-      </c>
-      <c r="E398" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A401" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A405" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
+        <v>497</v>
+      </c>
+      <c r="B406" t="s">
         <v>498</v>
-      </c>
-      <c r="B406" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A409" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B410" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A413" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>503</v>
+      </c>
+      <c r="B414" t="s">
         <v>504</v>
-      </c>
-      <c r="B414" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A417" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
+        <v>506</v>
+      </c>
+      <c r="B418" t="s">
         <v>507</v>
-      </c>
-      <c r="B418" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A421" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C422" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A425" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B426" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A429" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>515</v>
+      </c>
+      <c r="B430" t="s">
         <v>516</v>
-      </c>
-      <c r="B430" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A433" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C434" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="30" x14ac:dyDescent="0.4">
       <c r="A437" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>522</v>
+      </c>
+      <c r="D438" t="s">
         <v>523</v>
-      </c>
-      <c r="D438" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="441" spans="1:4" ht="30" x14ac:dyDescent="0.4">
       <c r="A441" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
+        <v>525</v>
+      </c>
+      <c r="C442" t="s">
         <v>526</v>
-      </c>
-      <c r="C442" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="30" x14ac:dyDescent="0.4">
       <c r="A445" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C445" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A449" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C450" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A453" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
+        <v>534</v>
+      </c>
+      <c r="C454" t="s">
         <v>535</v>
-      </c>
-      <c r="C454" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A457" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C458" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A461" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B462" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="465" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A465" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
+        <v>560</v>
+      </c>
+      <c r="C466" t="s">
         <v>561</v>
-      </c>
-      <c r="C466" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A469" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
+        <v>563</v>
+      </c>
+      <c r="B470" t="s">
         <v>564</v>
       </c>
-      <c r="B470" t="s">
-        <v>565</v>
-      </c>
       <c r="E470" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F470" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A473" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C474" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A477" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D478" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="481" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A481" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C481" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E481" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H481" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E482" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H482" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="485" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A485" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C485" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E485" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I485" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E486" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H486" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="489" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A489" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C489" t="s">
         <v>599</v>
       </c>
-      <c r="C489" t="s">
-        <v>600</v>
-      </c>
       <c r="E489" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G489" t="s">
         <v>597</v>
-      </c>
-      <c r="G489" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="493" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A493" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="G493" t="s">
         <v>602</v>
-      </c>
-      <c r="G493" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="497" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A497" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C498" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="501" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A501" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B502" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="505" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A505" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D506" t="s">
-        <v>620</v>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A509" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>625</v>
+      </c>
+      <c r="C510" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -5249,7 +5271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A114"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
@@ -5465,12 +5487,12 @@
     </row>
     <row r="85" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="86" spans="1:1" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="87" spans="1:1" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -5549,7 +5571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
@@ -5826,12 +5848,12 @@
     </row>
     <row r="110" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
@@ -5846,201 +5868,201 @@
     </row>
     <row r="117" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B121" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B122" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B123" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B128" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A143" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B144" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A147" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B148" s="13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B149" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B150" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="D150" s="5" t="s">
         <v>550</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B151" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B152" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A155" s="13" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B156" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="J156" t="s">
         <v>557</v>
       </c>
-      <c r="G156" s="13" t="s">
-        <v>554</v>
-      </c>
-      <c r="J156" t="s">
+      <c r="K156" s="13" t="s">
         <v>558</v>
-      </c>
-      <c r="K156" s="13" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C159" s="13" t="s">
         <v>566</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B160" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B161" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F161" s="13" t="s">
         <v>569</v>
-      </c>
-      <c r="F161" s="13" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A164" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B165" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="D168" s="5" t="s">
         <v>576</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A172" s="13" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B174" s="13" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Number" sheetId="4" r:id="rId1"/>
     <sheet name="Vocabulary" sheetId="3" r:id="rId2"/>
     <sheet name="Conversation" sheetId="1" r:id="rId3"/>
-    <sheet name="Grammar" sheetId="2" r:id="rId4"/>
+    <sheet name="Knowledge" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="704">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -491,24 +491,6 @@
     <t>Excuse me. Do you speak English?</t>
   </si>
   <si>
-    <t>いいえ、はなしません。すみません。</t>
-  </si>
-  <si>
-    <t>No, I don't. I'm sorry.</t>
-  </si>
-  <si>
-    <t>にほんごをはなしますか。</t>
-  </si>
-  <si>
-    <t>Do you speak Japanese?</t>
-  </si>
-  <si>
-    <t>すこしはなします。</t>
-  </si>
-  <si>
-    <t>I speak it a little.</t>
-  </si>
-  <si>
     <t>どちらからですか。</t>
   </si>
   <si>
@@ -2750,13 +2732,543 @@
   </si>
   <si>
     <t>/igirisu/</t>
+  </si>
+  <si>
+    <t>おはようございます。おなまえは？</t>
+  </si>
+  <si>
+    <t>Good morning. What is your name?</t>
+  </si>
+  <si>
+    <t>トム・スミスです。</t>
+  </si>
+  <si>
+    <t>I am Tom Smith.</t>
+  </si>
+  <si>
+    <t>スミスさまですね？ごじゅうしょは？</t>
+  </si>
+  <si>
+    <t>Mr. Smith, right? What is your home address?</t>
+  </si>
+  <si>
+    <t>かまくらしみなみまち８の１５です。</t>
+  </si>
+  <si>
+    <t>It's 8-15, Minami-machi, Kamakura City.</t>
+  </si>
+  <si>
+    <t>おでんわばんごうは？</t>
+  </si>
+  <si>
+    <t>What is your telephone number?</t>
+  </si>
+  <si>
+    <t>０４６７の８９の１２５３です。</t>
+  </si>
+  <si>
+    <t>It's 0467-89-1253.</t>
+  </si>
+  <si>
+    <t>ありがとうございます。おへやは１８ごうしつです。</t>
+  </si>
+  <si>
+    <t>Thank you. Your room is Room 18.</t>
+  </si>
+  <si>
+    <t>きいろのカードはちょうしょくけんです。</t>
+  </si>
+  <si>
+    <t>The yellow cards are breakfast vouchers.</t>
+  </si>
+  <si>
+    <t>すみません、きょうのひづけはなんですか。</t>
+  </si>
+  <si>
+    <t>Excuse me, what is today's date?</t>
+  </si>
+  <si>
+    <t>しがつはつかのどようびです。</t>
+  </si>
+  <si>
+    <t>It's Saturday, April 20th.</t>
+  </si>
+  <si>
+    <t>えいご？いいえ、はなせません。すみません。</t>
+  </si>
+  <si>
+    <t>English? No, I can't. I'm sorry.</t>
+  </si>
+  <si>
+    <t>にほんごがわかりますか。</t>
+  </si>
+  <si>
+    <t>Do you understand Japanese?</t>
+  </si>
+  <si>
+    <t>すこしわかります。</t>
+  </si>
+  <si>
+    <t>I understand it a little.</t>
+  </si>
+  <si>
+    <t>４がつからとうきょうにすんでいます。</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>What is your telephone number? / As for your telephone number?</t>
+  </si>
+  <si>
+    <t>/odenwa bangoo wa?/</t>
+  </si>
+  <si>
+    <t>でんわ</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>/denwa/</t>
+  </si>
+  <si>
+    <t>ばんごう</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>/bangoo/</t>
+  </si>
+  <si>
+    <r>
+      <t>Numerals in general are called </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>すうじ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ばんごう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> refers to numbers used for identification</t>
+    </r>
+  </si>
+  <si>
+    <t>でんわばんごう</t>
+  </si>
+  <si>
+    <t>phone's number</t>
+  </si>
+  <si>
+    <t>/denwa bangoo/</t>
+  </si>
+  <si>
+    <t>おでんわばんごう</t>
+  </si>
+  <si>
+    <t>/odenwa bangoo/</t>
+  </si>
+  <si>
+    <t>スミスさま</t>
+  </si>
+  <si>
+    <t>Mr. Smith</t>
+  </si>
+  <si>
+    <t>/sumisu sama/</t>
+  </si>
+  <si>
+    <r>
+      <t>さま</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> is the respectful form of the generic honorific title </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>さん</t>
+    </r>
+  </si>
+  <si>
+    <t>and equivalent to either "Mr.," "Mrs.," "Ms.," or "Miss."</t>
+  </si>
+  <si>
+    <t>ですね？</t>
+  </si>
+  <si>
+    <t>It is..., right?</t>
+  </si>
+  <si>
+    <t>/desu ne?/</t>
+  </si>
+  <si>
+    <t>home address</t>
+  </si>
+  <si>
+    <t>じゅうしょ</t>
+  </si>
+  <si>
+    <t>/juusho/</t>
+  </si>
+  <si>
+    <t>ごじゅうしょ</t>
+  </si>
+  <si>
+    <t>/gojuusho/</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>とし</t>
+  </si>
+  <si>
+    <t>/toshi/</t>
+  </si>
+  <si>
+    <t>おとし</t>
+  </si>
+  <si>
+    <t>/otoshi/</t>
+  </si>
+  <si>
+    <t>How old are you? / As for your age?</t>
+  </si>
+  <si>
+    <t>おとしは？</t>
+  </si>
+  <si>
+    <t>/otoshi wa?/</t>
+  </si>
+  <si>
+    <t>email address</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>/meeru adoresu/</t>
+  </si>
+  <si>
+    <r>
+      <t>"emails" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>でんしメール</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (electronic mail), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eメール</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>, or simply </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>メール</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Spam" e-﻿mail is called </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>めいわくメール</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (literally, "nuisance mail")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Email address" can be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>メールアドレス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>, or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>メルアド</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> for short, or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>メアド</t>
+    </r>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>なん</t>
+  </si>
+  <si>
+    <t>/nan/</t>
+  </si>
+  <si>
+    <t>What is it?</t>
+  </si>
+  <si>
+    <t>なんですか</t>
+  </si>
+  <si>
+    <t>/nan desu ka/</t>
+  </si>
+  <si>
+    <t>メールアドレスはなんですか。</t>
+  </si>
+  <si>
+    <t>What is your email address?</t>
+  </si>
+  <si>
+    <t>/meeru adoresu wa nan desu ka/</t>
+  </si>
+  <si>
+    <r>
+      <t>"at" (@) is read as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>アットマーク</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (literally, "at mark")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"underscore" (_) is read either </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>アンダースコア</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (underscore) or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>アンダーバー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (under bar)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The dash (-) is usually read as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>ハイフン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (hyphen)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>the dot (.) may be read as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>ドット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (dot) or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>ピリオド</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (period)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2845,6 +3357,14 @@
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2875,7 +3395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2894,6 +3414,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3184,275 +3705,275 @@
   <sheetData>
     <row r="1" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B6" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B14" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B18" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B22" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B26" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B30" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B34" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B38" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D42" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D46" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B50" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B54" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B58" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B62" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C66" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C70" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B74" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C78" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B82" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -3463,10 +3984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K510"/>
+  <dimension ref="A1:K562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="A512" sqref="A512"/>
+    <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
+      <selection activeCell="A563" sqref="A563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3512,15 +4033,15 @@
     </row>
     <row r="13" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C14" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
@@ -3577,28 +4098,28 @@
     </row>
     <row r="33" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C33" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B38" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
@@ -3616,15 +4137,15 @@
     </row>
     <row r="45" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C46" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
@@ -3668,28 +4189,28 @@
     </row>
     <row r="61" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D61" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C66" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
@@ -3819,67 +4340,67 @@
     </row>
     <row r="101" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E101" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D106" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C110" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A113" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B114" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A117" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C118" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
@@ -3980,1285 +4501,1472 @@
     </row>
     <row r="145" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A145" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D146" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A149" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B150" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A153" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D153" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A157" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C157" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A161" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F161" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C162" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A165" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B166" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A169" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B170" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E170" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F170" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A173" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D174" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A177" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B178" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A181" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C182" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A185" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C185" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A189" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D190" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A193" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D193" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A197" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D198" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A201" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B202" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A205" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B206" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A209" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B210" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D210" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A213" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C214" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A217" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B218" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A221" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B222" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A225" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E225" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A229" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C230" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A233" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C234" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F234" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I234" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A237" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D238" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A241" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D242" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A245" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F246" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A249" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C250" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A253" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C254" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A257" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B258" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A261" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B262" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A265" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C266" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F266" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="G266" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A269" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A273" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B274" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A277" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F278" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A281" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D282" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E282" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A285" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B286" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A289" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C290" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A293" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B294" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A297" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G298" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A301" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C302" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A305" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C306" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A309" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A313" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A317" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A321" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B322" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A325" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F326" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A329" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A333" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D334" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A337" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E338" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A341" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C342" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A345" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C345" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A349" s="11" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B350" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A353" s="3" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B354" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A357" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C358" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A361" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C362" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A365" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E366" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A369" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C370" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A373" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C374" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A377" s="3" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D378" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A381" s="3" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E381" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A385" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C386" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A389" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B390" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A393" s="3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C394" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A397" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E398" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A401" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A405" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B406" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A409" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B410" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A413" s="3" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B414" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A417" s="3" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B418" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A421" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C422" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A425" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B426" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A429" s="3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B430" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A433" s="3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C434" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="30" x14ac:dyDescent="0.4">
       <c r="A437" s="12" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D438" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="441" spans="1:4" ht="30" x14ac:dyDescent="0.4">
       <c r="A441" s="12" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C442" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="30" x14ac:dyDescent="0.4">
       <c r="A445" s="12" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C445" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A449" s="3" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C450" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A453" s="3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C454" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A457" s="3" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C458" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A461" s="3" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B462" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="465" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A465" s="3" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C466" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A469" s="3" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B470" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="E470" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F470" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A473" s="3" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C474" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A477" s="3" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D478" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="481" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A481" s="3" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C481" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E481" s="3" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="H481" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E482" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="H482" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="485" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A485" s="3" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C485" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="E485" s="3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="I485" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E486" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="H486" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="489" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A489" s="3" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C489" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E489" s="3" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G489" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="493" spans="1:9" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A493" s="3" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="G493" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="497" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A497" s="3" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C498" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="501" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A501" s="3" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B502" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="505" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A505" s="3" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D506" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="509" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A509" s="3" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C510" t="s">
-        <v>626</v>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A513" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>652</v>
+      </c>
+      <c r="B514" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A517" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>655</v>
+      </c>
+      <c r="B518" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A521" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F521" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>660</v>
+      </c>
+      <c r="C522" t="s">
+        <v>661</v>
+      </c>
+      <c r="F522" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A525" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="G525" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A529" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>665</v>
+      </c>
+      <c r="B530" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A533" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>670</v>
+      </c>
+      <c r="C534" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A537" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>685</v>
+      </c>
+      <c r="C538" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A541" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>672</v>
+      </c>
+      <c r="C542" t="s">
+        <v>674</v>
+      </c>
+      <c r="E542" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A545" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>677</v>
+      </c>
+      <c r="B546" t="s">
+        <v>679</v>
+      </c>
+      <c r="D546" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A549" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D549" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A553" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>691</v>
+      </c>
+      <c r="B554" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A557" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>694</v>
+      </c>
+      <c r="C558" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A561" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>698</v>
+      </c>
+      <c r="D562" t="s">
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -5269,298 +5977,429 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A114"/>
+  <dimension ref="A1:A161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="25" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="48" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+    <row r="52" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+    <row r="74" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+    <row r="78" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+    <row r="82" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+    <row r="86" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="87" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-    </row>
-    <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-    </row>
-    <row r="85" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+    <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="86" spans="1:1" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="87" spans="1:1" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+    <row r="100" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="10"/>
+    </row>
+    <row r="154" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+    <row r="158" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
-    </row>
-    <row r="107" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="114" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5569,10 +6408,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K177"/>
+  <dimension ref="A1:K197"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5652,417 +6491,472 @@
     </row>
     <row r="31" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D53" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D54" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D55" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D59" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B82" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B83" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B94" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B98" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B121" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B122" s="5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B123" s="5" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B128" s="5" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A143" s="13" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B144" s="5" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A147" s="13" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B148" s="13" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B149" s="13" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B150" s="13" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B151" s="5" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B152" s="5" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A155" s="13" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B156" s="5" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="J156" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="K156" s="13" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B160" s="13" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B161" s="5" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A164" s="13" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B165" s="5" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A172" s="13" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B174" s="13" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>620</v>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A180" s="5" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A181" s="13" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A184" s="13" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B185" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A189" s="5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B190" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B191" s="5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A194" s="5" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A195" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A196" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A197" s="5" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="736">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -3262,6 +3262,368 @@
       </rPr>
       <t> (period)</t>
     </r>
+  </si>
+  <si>
+    <t>さい</t>
+  </si>
+  <si>
+    <t>years old</t>
+  </si>
+  <si>
+    <t>/sai/</t>
+  </si>
+  <si>
+    <r>
+      <t>"eight" (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>はち</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"ten" (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>じゅう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"one" (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>いち</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Eight years old," for example, is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>はっさい</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"ten years old" is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>じゅっさい</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Twenty-one years old," for example, is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>にじゅういっさい</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pronunciation for the number "one" (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>いち</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>) changes when it's combined with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>さい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (years old)</t>
+    </r>
+  </si>
+  <si>
+    <t>はたち</t>
+  </si>
+  <si>
+    <t>twenty years old</t>
+  </si>
+  <si>
+    <t>/hatachi/</t>
+  </si>
+  <si>
+    <t>ごうしつ</t>
+  </si>
+  <si>
+    <t>/gooshitsu/</t>
+  </si>
+  <si>
+    <t>へやばんごう</t>
+  </si>
+  <si>
+    <t>the room number</t>
+  </si>
+  <si>
+    <t>/heya bangoo/</t>
+  </si>
+  <si>
+    <r>
+      <t>じゅうはちごうしつ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Room 18</t>
+  </si>
+  <si>
+    <t>/juuhachi gooshitsu/</t>
+  </si>
+  <si>
+    <t>Room number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room </t>
+  </si>
+  <si>
+    <t>へや</t>
+  </si>
+  <si>
+    <t>/heya/</t>
+  </si>
+  <si>
+    <t>おへや</t>
+  </si>
+  <si>
+    <t>/oheya/</t>
+  </si>
+  <si>
+    <r>
+      <t>Some people try to avoid 4 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>よん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>) because </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> sounds the same as the word for "death" in Japanese</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Those people may also dislike 9 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>きゅう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>) because </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> sounds the same as "suffering."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>よんじゅうご</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFEC1E23"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>さい</t>
+    </r>
+  </si>
+  <si>
+    <t>fourty-five years old</t>
+  </si>
+  <si>
+    <t>/yonjuugo sai/</t>
   </si>
 </sst>
 </file>
@@ -3695,10 +4057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3963,17 +4325,30 @@
         <v>411</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>412</v>
       </c>
       <c r="B82" t="s">
         <v>414</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A85" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>715</v>
+      </c>
+      <c r="C86" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -3984,10 +4359,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K562"/>
+  <dimension ref="A1:K586"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
-      <selection activeCell="A563" sqref="A563"/>
+    <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
+      <selection activeCell="K586" sqref="K586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5967,6 +6342,90 @@
       </c>
       <c r="D562" t="s">
         <v>699</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A565" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>705</v>
+      </c>
+      <c r="B566" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A569" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>734</v>
+      </c>
+      <c r="D570" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A573" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>726</v>
+      </c>
+      <c r="B574" t="s">
+        <v>728</v>
+      </c>
+      <c r="D574" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A577" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>725</v>
+      </c>
+      <c r="C578" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A581" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>720</v>
+      </c>
+      <c r="C582" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A585" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>723</v>
+      </c>
+      <c r="B586" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -6408,10 +6867,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K197"/>
+  <dimension ref="A1:K207"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6939,24 +7398,63 @@
         <v>690</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>703</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A200" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B201" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B202" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B203" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A206" s="5" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B207" s="5" t="s">
+        <v>732</v>
       </c>
     </row>
   </sheetData>

--- a/Mango.xlsx
+++ b/Mango.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="764">
   <si>
     <t>こんにちは。いいてんきですね。</t>
   </si>
@@ -3624,13 +3624,559 @@
   </si>
   <si>
     <t>/yonjuugo sai/</t>
+  </si>
+  <si>
+    <r>
+      <t>use the little word </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> where a hyphen is used in English</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>いち</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFC78320"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFEC1E23"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>さん</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF47AA41"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>アットマーク</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFC41A7D"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>エム</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFDF7523"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>エイ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF0087A3"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>エヌ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF63A40F"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>ジー</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF8712B6"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>オー</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF84272B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>ドット</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF0069D6"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>シー</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF005D82"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>オー</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFC78320"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>エム</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFC78320"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFEC1E23"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF47AA41"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFC41A7D"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFDF7523"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF0087A3"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF63A40F"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF8712B6"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF84272B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF0069D6"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF005D82"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFC78320"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+  </si>
+  <si>
+    <t>/Ichi ni san attomāku emu ei enu jī ō dotto shī ō emu/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the number 9 appears in an email address, </t>
+  </si>
+  <si>
+    <r>
+      <t>just add </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>すうじの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (of the number) as in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>すうじのきゅう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (9 of the number)</t>
+    </r>
+  </si>
+  <si>
+    <t>if a letter in upper case is used,</t>
+  </si>
+  <si>
+    <r>
+      <t>just add </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>おおもじ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> before the said letter as in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFF76600"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>おおもじシー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t> (upper case C)</t>
+    </r>
+  </si>
+  <si>
+    <t>Prefecture</t>
+  </si>
+  <si>
+    <t>けん</t>
+  </si>
+  <si>
+    <t>/ken/</t>
+  </si>
+  <si>
+    <t>し</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>/shi/</t>
+  </si>
+  <si>
+    <t>machi / Town</t>
+  </si>
+  <si>
+    <t>/machi/</t>
+  </si>
+  <si>
+    <t>まち</t>
+  </si>
+  <si>
+    <t>My home address is 8-15, Minami-machi, Kamakura City, Kanagawa Prefecture.</t>
+  </si>
+  <si>
+    <r>
+      <t>わたしの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFC78320"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>じゅうしょ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFEC1E23"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>かながわ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF47AA41"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>けん</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFC41A7D"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>かまくら</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FFDF7523"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>し</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF0087A3"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>みなみまち</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF63A40F"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>８</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF8712B6"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF84272B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>１５</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF0069D6"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>です</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="23"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Lucida Sans Unicode"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>しゅう</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>/shuu/</t>
+  </si>
+  <si>
+    <t>State of California</t>
+  </si>
+  <si>
+    <t>カリフォルニアしゅう</t>
+  </si>
+  <si>
+    <t>/kariforunia shuu/</t>
+  </si>
+  <si>
+    <t>City of Los Angeles</t>
+  </si>
+  <si>
+    <t>ロサンゼルスし</t>
+  </si>
+  <si>
+    <t>/rosanzerusu shi/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3727,6 +4273,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FF005D82"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FF47AA41"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FFC41A7D"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FFDF7523"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FF0087A3"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FF63A40F"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FF8712B6"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FF84272B"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="23"/>
+      <color rgb="FF0069D6"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3757,7 +4366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3777,6 +4386,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4359,10 +4969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K586"/>
+  <dimension ref="A1:K618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
-      <selection activeCell="K586" sqref="K586"/>
+    <sheetView tabSelected="1" topLeftCell="A602" workbookViewId="0">
+      <selection activeCell="A618" sqref="A618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6389,12 +6999,12 @@
         <v>730</v>
       </c>
     </row>
-    <row r="577" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A577" s="3" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>725</v>
       </c>
@@ -6402,12 +7012,12 @@
         <v>718</v>
       </c>
     </row>
-    <row r="581" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A581" s="3" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>720</v>
       </c>
@@ -6415,17 +7025,118 @@
         <v>721</v>
       </c>
     </row>
-    <row r="585" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A585" s="3" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>723</v>
       </c>
       <c r="B586" t="s">
         <v>724</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A589" s="15" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A590" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="F590" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A593" s="3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>744</v>
+      </c>
+      <c r="C594" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A597" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>748</v>
+      </c>
+      <c r="B598" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A601" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>750</v>
+      </c>
+      <c r="C602" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A605" s="15" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A609" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>756</v>
+      </c>
+      <c r="B610" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A613" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>758</v>
+      </c>
+      <c r="C614" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="A617" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>761</v>
+      </c>
+      <c r="C618" t="s">
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -6867,10 +7578,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K207"/>
+  <dimension ref="A1:K218"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7457,6 +8168,31 @@
         <v>732</v>
       </c>
     </row>
+    <row r="210" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A210" s="5" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A213" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B214" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A217" s="5" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B218" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
